--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukut\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukut\Desktop\Uni Alexa\entwDsa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCF90CB-75CD-4289-9C33-B657F4D4EDEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7553F06A-B476-4938-A3F2-0712FECDE0D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{906AC16C-7A00-4349-BCA4-49CEC51B032C}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="28">
   <si>
     <t>Datum</t>
   </si>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>Felicitas</t>
+  </si>
+  <si>
+    <t>4. Vorlesung</t>
+  </si>
+  <si>
+    <t>2. Vorlesung</t>
+  </si>
+  <si>
+    <t>3. Vorlesung</t>
   </si>
 </sst>
 </file>
@@ -3086,7 +3095,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3105,7 +3114,7 @@
       </c>
       <c r="C3" s="6">
         <f>SUM(C6:C300)</f>
-        <v>0.11458333333333333</v>
+        <v>1.3749999999999998</v>
       </c>
       <c r="D3" s="6"/>
     </row>
@@ -3131,10 +3140,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>44838</v>
+        <v>44839</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C6" s="3">
         <v>0.11458333333333333</v>
@@ -3150,107 +3159,193 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1">
+        <v>44839</v>
+      </c>
       <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.11458333333333333</v>
+      </c>
       <c r="D7" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1">
+        <v>44839</v>
+      </c>
       <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.11458333333333333</v>
+      </c>
       <c r="D8" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1">
+        <v>44853</v>
+      </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.11458333333333333</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1">
+        <v>44853</v>
+      </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.11458333333333333</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1">
+        <v>44853</v>
+      </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>24</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.11458333333333333</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1">
+        <v>44862</v>
+      </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.11458333333333333</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1">
+        <v>44862</v>
+      </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.11458333333333333</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1">
+        <v>44862</v>
+      </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>24</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.11458333333333333</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1">
+        <v>44867</v>
+      </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.11458333333333333</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1">
+        <v>44867</v>
+      </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.11458333333333333</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>44867</v>
+      </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>24</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.11458333333333333</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" t="s">
         <v>14</v>
@@ -3259,7 +3354,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" t="s">
         <v>14</v>
@@ -3268,7 +3363,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" t="s">
         <v>14</v>
@@ -3277,7 +3372,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" t="s">
         <v>14</v>
@@ -3286,7 +3381,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" t="s">
         <v>14</v>
@@ -3295,7 +3390,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" t="s">
         <v>14</v>
@@ -3304,7 +3399,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" t="s">
         <v>14</v>
@@ -3313,7 +3408,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" t="s">
         <v>14</v>
@@ -3322,7 +3417,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" t="s">
         <v>14</v>
@@ -3331,7 +3426,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" t="s">
         <v>14</v>
@@ -3340,7 +3435,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" t="s">
         <v>14</v>
@@ -3349,7 +3444,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" t="s">
         <v>14</v>
@@ -3358,7 +3453,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" t="s">
         <v>14</v>
@@ -3367,7 +3462,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" t="s">
         <v>14</v>
@@ -3376,7 +3471,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" t="s">
         <v>14</v>

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukut\Desktop\Uni Alexa\entwDsa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7553F06A-B476-4938-A3F2-0712FECDE0D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C11A8CA-185B-405C-8102-AB3B948788C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{906AC16C-7A00-4349-BCA4-49CEC51B032C}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Stammdaten" sheetId="2" r:id="rId2"/>
     <sheet name="Analyse" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
@@ -28,12 +28,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="29">
   <si>
     <t>Datum</t>
   </si>
@@ -125,6 +122,9 @@
   </si>
   <si>
     <t>3. Vorlesung</t>
+  </si>
+  <si>
+    <t>Initiale Dateien aus Beispiel-Skill in Github hochgeladen</t>
   </si>
 </sst>
 </file>
@@ -3095,7 +3095,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3114,7 +3114,7 @@
       </c>
       <c r="C3" s="6">
         <f>SUM(C6:C300)</f>
-        <v>1.3749999999999998</v>
+        <v>1.4062499999999998</v>
       </c>
       <c r="D3" s="6"/>
     </row>
@@ -3346,12 +3346,20 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1">
+        <v>44873</v>
+      </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="C18" s="3">
+        <v>3.125E-2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -7605,7 +7613,7 @@
   <dimension ref="A3:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C11A8CA-185B-405C-8102-AB3B948788C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6393D1-79AE-42CB-B8A8-9A828732DD32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{906AC16C-7A00-4349-BCA4-49CEC51B032C}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="33">
   <si>
     <t>Datum</t>
   </si>
@@ -126,6 +126,18 @@
   <si>
     <t>Initiale Dateien aus Beispiel-Skill in Github hochgeladen</t>
   </si>
+  <si>
+    <t>https://miro.com/app/board/o9J_lHI5u6k=/?share_link_id=331294685371</t>
+  </si>
+  <si>
+    <t>Modified LaunchRequestHandler() and added basic YesIntentHandler()</t>
+  </si>
+  <si>
+    <t>Added Intents and handlers for NumberOfPlayer and AddPlayer</t>
+  </si>
+  <si>
+    <t>6. Vorlesung</t>
+  </si>
 </sst>
 </file>
 
@@ -134,7 +146,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -158,6 +170,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -176,10 +196,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -191,8 +212,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -3095,7 +3118,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3114,7 +3137,7 @@
       </c>
       <c r="C3" s="6">
         <f>SUM(C6:C300)</f>
-        <v>1.4062499999999998</v>
+        <v>2.0104166666666661</v>
       </c>
       <c r="D3" s="6"/>
     </row>
@@ -3363,66 +3386,122 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1">
+        <v>44881</v>
+      </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="C19" s="3">
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+      <c r="A20" s="1">
+        <v>44881</v>
+      </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="C20" s="3">
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
+      <c r="A21" s="1">
+        <v>44881</v>
+      </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>24</v>
+      </c>
+      <c r="C21" s="3">
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1">
+        <v>44881</v>
+      </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="C22" s="3">
+        <v>6.25E-2</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1">
+        <v>44883</v>
+      </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.10416666666666667</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
+      <c r="A24" s="1">
+        <v>44888</v>
+      </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="C24" s="3">
+        <v>9.375E-2</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1">
+        <v>44888</v>
+      </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="C25" s="3">
+        <v>9.375E-2</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -7502,7 +7581,12 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E19" r:id="rId1" xr:uid="{629B90F9-51EE-4CB6-A5F5-138D280CA98E}"/>
+    <hyperlink ref="E20:E21" r:id="rId2" display="https://miro.com/app/board/o9J_lHI5u6k=/?share_link_id=331294685371" xr:uid="{EB50A2AE-A28D-4508-9978-DB2CCCF986E5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6393D1-79AE-42CB-B8A8-9A828732DD32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{91F77B37-9A08-BD41-A22C-1E7D11FEACD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{906AC16C-7A00-4349-BCA4-49CEC51B032C}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Stammdaten" sheetId="2" r:id="rId2"/>
     <sheet name="Analyse" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
@@ -28,9 +28,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="36">
   <si>
     <t>Datum</t>
   </si>
@@ -130,13 +133,16 @@
     <t>https://miro.com/app/board/o9J_lHI5u6k=/?share_link_id=331294685371</t>
   </si>
   <si>
-    <t>Modified LaunchRequestHandler() and added basic YesIntentHandler()</t>
+    <t>6. Vorlesung</t>
   </si>
   <si>
-    <t>Added Intents and handlers for NumberOfPlayer and AddPlayer</t>
+    <t>Begann Skill auf Azure Cloud umzusiedeln</t>
   </si>
   <si>
-    <t>6. Vorlesung</t>
+    <t>Intents und Handler für NumberOfPlayer und AddPlayer hinzugefügt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LaunchRequestHandler modifiziert und basic YesIntent und -Handler hinzugefügt </t>
   </si>
 </sst>
 </file>
@@ -218,7 +224,28 @@
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
@@ -2801,7 +2828,7 @@
     <dataField name="Summe von Dauer" fld="1" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="0">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -2815,6 +2842,21 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF715391-FA44-3548-A597-CFB4FF6ADA59}" name="Tabelle1" displayName="Tabelle1" ref="A5:F500" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A5:F500" xr:uid="{BF715391-FA44-3548-A597-CFB4FF6ADA59}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{9A0412E2-7A1E-F042-AA73-002A1CCF7288}" name="Datum"/>
+    <tableColumn id="2" xr3:uid="{1BD93691-83A6-2043-9A5B-923EC51642CB}" name="Person"/>
+    <tableColumn id="3" xr3:uid="{C4F47D3F-300A-6A4A-BBC0-5D82336D27FD}" name="Dauer"/>
+    <tableColumn id="4" xr3:uid="{39B2A61A-4818-7B4F-BAA4-4445F8634EBA}" name="Kategorie" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{0B203C6E-3492-FB40-AC5F-C6E4E2F97DEA}" name="Tätigkeitsbeschreibung / Bemerkung"/>
+    <tableColumn id="6" xr3:uid="{96865A04-1698-BC40-AFFB-819DBFB1C0C6}" name="ggfs. Zuordnung zu User Story / Ticket"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3118,30 +3160,30 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.375" customWidth="1"/>
-    <col min="2" max="2" width="43.5" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="40" customWidth="1"/>
-    <col min="5" max="5" width="57.375" customWidth="1"/>
-    <col min="6" max="6" width="38" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="43.52734375" customWidth="1"/>
+    <col min="3" max="3" width="17.5078125" customWidth="1"/>
+    <col min="4" max="4" width="39.953125" customWidth="1"/>
+    <col min="5" max="5" width="57.33984375" customWidth="1"/>
+    <col min="6" max="6" width="46.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="6">
         <f>SUM(C6:C300)</f>
-        <v>2.0104166666666661</v>
+        <v>2.2812499999999996</v>
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
@@ -3161,7 +3203,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44839</v>
       </c>
@@ -3181,7 +3223,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44839</v>
       </c>
@@ -3198,7 +3240,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44839</v>
       </c>
@@ -3215,7 +3257,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44853</v>
       </c>
@@ -3232,7 +3274,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44853</v>
       </c>
@@ -3249,7 +3291,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44853</v>
       </c>
@@ -3266,7 +3308,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44862</v>
       </c>
@@ -3283,7 +3325,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44862</v>
       </c>
@@ -3300,7 +3342,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44862</v>
       </c>
@@ -3317,7 +3359,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44867</v>
       </c>
@@ -3334,7 +3376,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44867</v>
       </c>
@@ -3351,7 +3393,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>44867</v>
       </c>
@@ -3368,7 +3410,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>44873</v>
       </c>
@@ -3385,7 +3427,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>44881</v>
       </c>
@@ -3402,7 +3444,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>44881</v>
       </c>
@@ -3419,7 +3461,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>44881</v>
       </c>
@@ -3436,7 +3478,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>44881</v>
       </c>
@@ -3450,10 +3492,10 @@
         <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>44883</v>
       </c>
@@ -3467,10 +3509,10 @@
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>44888</v>
       </c>
@@ -3484,10 +3526,10 @@
         <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>44888</v>
       </c>
@@ -3501,19 +3543,27 @@
         <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>44888</v>
+      </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.27083333333333331</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" t="s">
         <v>14</v>
@@ -3522,7 +3572,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" t="s">
         <v>14</v>
@@ -3531,7 +3581,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" t="s">
         <v>14</v>
@@ -3540,7 +3590,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" t="s">
         <v>14</v>
@@ -3549,7 +3599,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" t="s">
         <v>14</v>
@@ -3558,7 +3608,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" t="s">
         <v>14</v>
@@ -3567,7 +3617,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" t="s">
         <v>14</v>
@@ -3576,7 +3626,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" t="s">
         <v>14</v>
@@ -3585,7 +3635,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" t="s">
         <v>14</v>
@@ -3594,7 +3644,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" t="s">
         <v>14</v>
@@ -3603,7 +3653,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" t="s">
         <v>14</v>
@@ -3612,7 +3662,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" t="s">
         <v>14</v>
@@ -3621,7 +3671,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" t="s">
         <v>14</v>
@@ -3630,7 +3680,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" t="s">
         <v>14</v>
@@ -3639,7 +3689,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" t="s">
         <v>14</v>
@@ -3648,7 +3698,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" t="s">
         <v>14</v>
@@ -3657,7 +3707,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" t="s">
         <v>14</v>
@@ -3666,7 +3716,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" t="s">
         <v>14</v>
@@ -3675,7 +3725,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" t="s">
         <v>14</v>
@@ -3684,7 +3734,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" t="s">
         <v>14</v>
@@ -3693,7 +3743,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" t="s">
         <v>14</v>
@@ -3702,7 +3752,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" t="s">
         <v>14</v>
@@ -3711,7 +3761,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" t="s">
         <v>14</v>
@@ -3720,7 +3770,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" t="s">
         <v>14</v>
@@ -3729,7 +3779,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" t="s">
         <v>14</v>
@@ -3738,7 +3788,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" t="s">
         <v>14</v>
@@ -3747,7 +3797,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" t="s">
         <v>14</v>
@@ -3756,7 +3806,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" t="s">
         <v>14</v>
@@ -3765,7 +3815,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" t="s">
         <v>14</v>
@@ -3774,7 +3824,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" t="s">
         <v>14</v>
@@ -3783,7 +3833,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" t="s">
         <v>14</v>
@@ -3792,7 +3842,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" t="s">
         <v>14</v>
@@ -3801,7 +3851,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" t="s">
         <v>14</v>
@@ -3810,7 +3860,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" t="s">
         <v>14</v>
@@ -3819,7 +3869,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" t="s">
         <v>14</v>
@@ -3828,7 +3878,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" t="s">
         <v>14</v>
@@ -3837,7 +3887,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" t="s">
         <v>14</v>
@@ -3846,7 +3896,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" t="s">
         <v>14</v>
@@ -3855,7 +3905,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" t="s">
         <v>14</v>
@@ -3864,7 +3914,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" t="s">
         <v>14</v>
@@ -3873,7 +3923,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" t="s">
         <v>14</v>
@@ -3882,7 +3932,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" t="s">
         <v>14</v>
@@ -3891,7 +3941,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" t="s">
         <v>14</v>
@@ -3900,7 +3950,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" t="s">
         <v>14</v>
@@ -3909,7 +3959,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" t="s">
         <v>14</v>
@@ -3918,7 +3968,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" t="s">
         <v>14</v>
@@ -3927,7 +3977,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" t="s">
         <v>14</v>
@@ -3936,7 +3986,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" t="s">
         <v>14</v>
@@ -3945,7 +3995,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" t="s">
         <v>14</v>
@@ -3954,7 +4004,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" t="s">
         <v>14</v>
@@ -3963,7 +4013,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" t="s">
         <v>14</v>
@@ -3972,7 +4022,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" t="s">
         <v>14</v>
@@ -3981,7 +4031,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" t="s">
         <v>14</v>
@@ -3990,7 +4040,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" t="s">
         <v>14</v>
@@ -3999,7 +4049,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" t="s">
         <v>14</v>
@@ -4008,7 +4058,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" t="s">
         <v>14</v>
@@ -4017,7 +4067,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" t="s">
         <v>14</v>
@@ -4026,7 +4076,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" t="s">
         <v>14</v>
@@ -4035,7 +4085,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" t="s">
         <v>14</v>
@@ -4044,7 +4094,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" t="s">
         <v>14</v>
@@ -4053,7 +4103,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" t="s">
         <v>14</v>
@@ -4062,7 +4112,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" t="s">
         <v>14</v>
@@ -4071,7 +4121,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" t="s">
         <v>14</v>
@@ -4080,7 +4130,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" t="s">
         <v>14</v>
@@ -4089,7 +4139,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" t="s">
         <v>14</v>
@@ -4098,7 +4148,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" t="s">
         <v>14</v>
@@ -4107,7 +4157,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" t="s">
         <v>14</v>
@@ -4116,7 +4166,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" t="s">
         <v>14</v>
@@ -4125,7 +4175,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" t="s">
         <v>14</v>
@@ -4134,7 +4184,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" t="s">
         <v>14</v>
@@ -4143,7 +4193,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" t="s">
         <v>14</v>
@@ -4152,7 +4202,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" t="s">
         <v>14</v>
@@ -4161,7 +4211,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" t="s">
         <v>14</v>
@@ -4170,7 +4220,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" t="s">
         <v>14</v>
@@ -4179,7 +4229,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" t="s">
         <v>14</v>
@@ -4188,7 +4238,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" t="s">
         <v>14</v>
@@ -4197,7 +4247,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" t="s">
         <v>14</v>
@@ -4206,7 +4256,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" t="s">
         <v>14</v>
@@ -4215,7 +4265,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" t="s">
         <v>14</v>
@@ -4224,7 +4274,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" t="s">
         <v>14</v>
@@ -4233,7 +4283,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" t="s">
         <v>14</v>
@@ -4242,7 +4292,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" t="s">
         <v>14</v>
@@ -4251,7 +4301,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" t="s">
         <v>14</v>
@@ -4260,7 +4310,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" t="s">
         <v>14</v>
@@ -4269,7 +4319,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" t="s">
         <v>14</v>
@@ -4278,7 +4328,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" t="s">
         <v>14</v>
@@ -4287,7 +4337,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" t="s">
         <v>14</v>
@@ -4296,7 +4346,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" t="s">
         <v>14</v>
@@ -4305,7 +4355,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" t="s">
         <v>14</v>
@@ -4314,7 +4364,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" t="s">
         <v>14</v>
@@ -4323,7 +4373,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" t="s">
         <v>14</v>
@@ -4332,7 +4382,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="B118" t="s">
         <v>14</v>
@@ -4341,7 +4391,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="B119" t="s">
         <v>14</v>
@@ -4350,7 +4400,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
       <c r="B120" t="s">
         <v>14</v>
@@ -4359,7 +4409,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121" t="s">
         <v>14</v>
@@ -4368,7 +4418,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122" t="s">
         <v>14</v>
@@ -4377,7 +4427,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" t="s">
         <v>14</v>
@@ -4386,7 +4436,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="B124" t="s">
         <v>14</v>
@@ -4395,7 +4445,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="B125" t="s">
         <v>14</v>
@@ -4404,7 +4454,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
       <c r="B126" t="s">
         <v>14</v>
@@ -4413,7 +4463,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127" t="s">
         <v>14</v>
@@ -4422,7 +4472,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" t="s">
         <v>14</v>
@@ -4431,7 +4481,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
       <c r="B129" t="s">
         <v>14</v>
@@ -4440,7 +4490,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
       <c r="B130" t="s">
         <v>14</v>
@@ -4449,7 +4499,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" t="s">
         <v>14</v>
@@ -4458,7 +4508,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" t="s">
         <v>14</v>
@@ -4467,7 +4517,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
       <c r="B133" t="s">
         <v>14</v>
@@ -4476,7 +4526,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="B134" t="s">
         <v>14</v>
@@ -4485,7 +4535,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="B135" t="s">
         <v>14</v>
@@ -4494,7 +4544,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136" t="s">
         <v>14</v>
@@ -4503,7 +4553,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" t="s">
         <v>14</v>
@@ -4512,7 +4562,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
       <c r="B138" t="s">
         <v>14</v>
@@ -4521,7 +4571,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="B139" t="s">
         <v>14</v>
@@ -4530,7 +4580,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
       <c r="B140" t="s">
         <v>14</v>
@@ -4539,7 +4589,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
       <c r="B141" t="s">
         <v>14</v>
@@ -4548,7 +4598,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
       <c r="B142" t="s">
         <v>14</v>
@@ -4557,7 +4607,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="B143" t="s">
         <v>14</v>
@@ -4566,7 +4616,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144" t="s">
         <v>14</v>
@@ -4575,7 +4625,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
       <c r="B145" t="s">
         <v>14</v>
@@ -4584,7 +4634,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="B146" t="s">
         <v>14</v>
@@ -4593,7 +4643,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
       <c r="B147" t="s">
         <v>14</v>
@@ -4602,7 +4652,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="B148" t="s">
         <v>14</v>
@@ -4611,7 +4661,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="B149" t="s">
         <v>14</v>
@@ -4620,7 +4670,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="B150" t="s">
         <v>14</v>
@@ -4629,7 +4679,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="B151" t="s">
         <v>14</v>
@@ -4638,7 +4688,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="B152" t="s">
         <v>14</v>
@@ -4647,7 +4697,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="B153" t="s">
         <v>14</v>
@@ -4656,7 +4706,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
       <c r="B154" t="s">
         <v>14</v>
@@ -4665,7 +4715,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
       <c r="B155" t="s">
         <v>14</v>
@@ -4674,7 +4724,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
       <c r="B156" t="s">
         <v>14</v>
@@ -4683,7 +4733,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="B157" t="s">
         <v>14</v>
@@ -4692,7 +4742,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
       <c r="B158" t="s">
         <v>14</v>
@@ -4701,7 +4751,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159" t="s">
         <v>14</v>
@@ -4710,7 +4760,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
       <c r="B160" t="s">
         <v>14</v>
@@ -4719,7 +4769,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
       <c r="B161" t="s">
         <v>14</v>
@@ -4728,7 +4778,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="B162" t="s">
         <v>14</v>
@@ -4737,7 +4787,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="B163" t="s">
         <v>14</v>
@@ -4746,7 +4796,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="B164" t="s">
         <v>14</v>
@@ -4755,7 +4805,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="B165" t="s">
         <v>14</v>
@@ -4764,7 +4814,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="B166" t="s">
         <v>14</v>
@@ -4773,7 +4823,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
       <c r="B167" t="s">
         <v>14</v>
@@ -4782,7 +4832,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
       <c r="B168" t="s">
         <v>14</v>
@@ -4791,7 +4841,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
       <c r="B169" t="s">
         <v>14</v>
@@ -4800,7 +4850,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="B170" t="s">
         <v>14</v>
@@ -4809,7 +4859,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
       <c r="B171" t="s">
         <v>14</v>
@@ -4818,7 +4868,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
       <c r="B172" t="s">
         <v>14</v>
@@ -4827,7 +4877,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" t="s">
         <v>14</v>
@@ -4836,7 +4886,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="B174" t="s">
         <v>14</v>
@@ -4845,7 +4895,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
       <c r="B175" t="s">
         <v>14</v>
@@ -4854,7 +4904,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
       <c r="B176" t="s">
         <v>14</v>
@@ -4863,7 +4913,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
       <c r="B177" t="s">
         <v>14</v>
@@ -4872,7 +4922,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="1"/>
       <c r="B178" t="s">
         <v>14</v>
@@ -4881,7 +4931,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
       <c r="B179" t="s">
         <v>14</v>
@@ -4890,7 +4940,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
       <c r="B180" t="s">
         <v>14</v>
@@ -4899,7 +4949,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
       <c r="B181" t="s">
         <v>14</v>
@@ -4908,7 +4958,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
       <c r="B182" t="s">
         <v>14</v>
@@ -4917,7 +4967,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
       <c r="B183" t="s">
         <v>14</v>
@@ -4926,7 +4976,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
       <c r="B184" t="s">
         <v>14</v>
@@ -4935,7 +4985,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
       <c r="B185" t="s">
         <v>14</v>
@@ -4944,7 +4994,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="1"/>
       <c r="B186" t="s">
         <v>14</v>
@@ -4953,7 +5003,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="1"/>
       <c r="B187" t="s">
         <v>14</v>
@@ -4962,7 +5012,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
       <c r="B188" t="s">
         <v>14</v>
@@ -4971,7 +5021,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
       <c r="B189" t="s">
         <v>14</v>
@@ -4980,7 +5030,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="B190" t="s">
         <v>14</v>
@@ -4989,7 +5039,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
       <c r="B191" t="s">
         <v>14</v>
@@ -4998,7 +5048,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
       <c r="B192" t="s">
         <v>14</v>
@@ -5007,7 +5057,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="1"/>
       <c r="B193" t="s">
         <v>14</v>
@@ -5016,7 +5066,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
       <c r="B194" t="s">
         <v>14</v>
@@ -5025,7 +5075,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
       <c r="B195" t="s">
         <v>14</v>
@@ -5034,7 +5084,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="1"/>
       <c r="B196" t="s">
         <v>14</v>
@@ -5043,7 +5093,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="1"/>
       <c r="B197" t="s">
         <v>14</v>
@@ -5052,7 +5102,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
       <c r="B198" t="s">
         <v>14</v>
@@ -5061,7 +5111,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="1"/>
       <c r="B199" t="s">
         <v>14</v>
@@ -5070,7 +5120,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>
       <c r="B200" t="s">
         <v>14</v>
@@ -5079,7 +5129,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="1"/>
       <c r="B201" t="s">
         <v>14</v>
@@ -5088,7 +5138,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="1"/>
       <c r="B202" t="s">
         <v>14</v>
@@ -5097,7 +5147,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="1"/>
       <c r="B203" t="s">
         <v>14</v>
@@ -5106,7 +5156,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="1"/>
       <c r="B204" t="s">
         <v>14</v>
@@ -5115,7 +5165,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="1"/>
       <c r="B205" t="s">
         <v>14</v>
@@ -5124,7 +5174,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="1"/>
       <c r="B206" t="s">
         <v>14</v>
@@ -5133,7 +5183,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="1"/>
       <c r="B207" t="s">
         <v>14</v>
@@ -5142,7 +5192,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="1"/>
       <c r="B208" t="s">
         <v>14</v>
@@ -5151,7 +5201,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="1"/>
       <c r="B209" t="s">
         <v>14</v>
@@ -5160,7 +5210,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="1"/>
       <c r="B210" t="s">
         <v>14</v>
@@ -5169,7 +5219,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="1"/>
       <c r="B211" t="s">
         <v>14</v>
@@ -5178,7 +5228,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="1"/>
       <c r="B212" t="s">
         <v>14</v>
@@ -5187,7 +5237,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="1"/>
       <c r="B213" t="s">
         <v>14</v>
@@ -5196,7 +5246,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="1"/>
       <c r="B214" t="s">
         <v>14</v>
@@ -5205,7 +5255,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="1"/>
       <c r="B215" t="s">
         <v>14</v>
@@ -5214,7 +5264,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="1"/>
       <c r="B216" t="s">
         <v>14</v>
@@ -5223,7 +5273,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="1"/>
       <c r="B217" t="s">
         <v>14</v>
@@ -5232,7 +5282,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
       <c r="B218" t="s">
         <v>14</v>
@@ -5241,7 +5291,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="1"/>
       <c r="B219" t="s">
         <v>14</v>
@@ -5250,7 +5300,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="1"/>
       <c r="B220" t="s">
         <v>14</v>
@@ -5259,7 +5309,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="1"/>
       <c r="B221" t="s">
         <v>14</v>
@@ -5268,7 +5318,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="1"/>
       <c r="B222" t="s">
         <v>14</v>
@@ -5277,7 +5327,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="1"/>
       <c r="B223" t="s">
         <v>14</v>
@@ -5286,7 +5336,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="1"/>
       <c r="B224" t="s">
         <v>14</v>
@@ -5295,7 +5345,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="1"/>
       <c r="B225" t="s">
         <v>14</v>
@@ -5304,7 +5354,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="1"/>
       <c r="B226" t="s">
         <v>14</v>
@@ -5313,7 +5363,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="1"/>
       <c r="B227" t="s">
         <v>14</v>
@@ -5322,7 +5372,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="1"/>
       <c r="B228" t="s">
         <v>14</v>
@@ -5331,7 +5381,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="1"/>
       <c r="B229" t="s">
         <v>14</v>
@@ -5340,7 +5390,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="1"/>
       <c r="B230" t="s">
         <v>14</v>
@@ -5349,7 +5399,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="1"/>
       <c r="B231" t="s">
         <v>14</v>
@@ -5358,7 +5408,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="1"/>
       <c r="B232" t="s">
         <v>14</v>
@@ -5367,7 +5417,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="1"/>
       <c r="B233" t="s">
         <v>14</v>
@@ -5376,7 +5426,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="1"/>
       <c r="B234" t="s">
         <v>14</v>
@@ -5385,7 +5435,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="1"/>
       <c r="B235" t="s">
         <v>14</v>
@@ -5394,7 +5444,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="1"/>
       <c r="B236" t="s">
         <v>14</v>
@@ -5403,7 +5453,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="1"/>
       <c r="B237" t="s">
         <v>14</v>
@@ -5412,7 +5462,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="1"/>
       <c r="B238" t="s">
         <v>14</v>
@@ -5421,7 +5471,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="1"/>
       <c r="B239" t="s">
         <v>14</v>
@@ -5430,7 +5480,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="1"/>
       <c r="B240" t="s">
         <v>14</v>
@@ -5439,7 +5489,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="1"/>
       <c r="B241" t="s">
         <v>14</v>
@@ -5448,7 +5498,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="1"/>
       <c r="B242" t="s">
         <v>14</v>
@@ -5457,7 +5507,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="1"/>
       <c r="B243" t="s">
         <v>14</v>
@@ -5466,7 +5516,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="1"/>
       <c r="B244" t="s">
         <v>14</v>
@@ -5475,7 +5525,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="1"/>
       <c r="B245" t="s">
         <v>14</v>
@@ -5484,7 +5534,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="1"/>
       <c r="B246" t="s">
         <v>14</v>
@@ -5493,7 +5543,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="1"/>
       <c r="B247" t="s">
         <v>14</v>
@@ -5502,7 +5552,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="1"/>
       <c r="B248" t="s">
         <v>14</v>
@@ -5511,7 +5561,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="1"/>
       <c r="B249" t="s">
         <v>14</v>
@@ -5520,7 +5570,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="1"/>
       <c r="B250" t="s">
         <v>14</v>
@@ -5529,7 +5579,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="1"/>
       <c r="B251" t="s">
         <v>14</v>
@@ -5538,7 +5588,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="1"/>
       <c r="B252" t="s">
         <v>14</v>
@@ -5547,7 +5597,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="1"/>
       <c r="B253" t="s">
         <v>14</v>
@@ -5556,7 +5606,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="1"/>
       <c r="B254" t="s">
         <v>14</v>
@@ -5565,7 +5615,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="1"/>
       <c r="B255" t="s">
         <v>14</v>
@@ -5574,7 +5624,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="1"/>
       <c r="B256" t="s">
         <v>14</v>
@@ -5583,7 +5633,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" s="1"/>
       <c r="B257" t="s">
         <v>14</v>
@@ -5592,7 +5642,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" s="1"/>
       <c r="B258" t="s">
         <v>14</v>
@@ -5601,7 +5651,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" s="1"/>
       <c r="B259" t="s">
         <v>14</v>
@@ -5610,7 +5660,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="1"/>
       <c r="B260" t="s">
         <v>14</v>
@@ -5619,7 +5669,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="1"/>
       <c r="B261" t="s">
         <v>14</v>
@@ -5628,7 +5678,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="1"/>
       <c r="B262" t="s">
         <v>14</v>
@@ -5637,7 +5687,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" s="1"/>
       <c r="B263" t="s">
         <v>14</v>
@@ -5646,7 +5696,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="1"/>
       <c r="B264" t="s">
         <v>14</v>
@@ -5655,7 +5705,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" s="1"/>
       <c r="B265" t="s">
         <v>14</v>
@@ -5664,7 +5714,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" s="1"/>
       <c r="B266" t="s">
         <v>14</v>
@@ -5673,7 +5723,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" s="1"/>
       <c r="B267" t="s">
         <v>14</v>
@@ -5682,7 +5732,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" s="1"/>
       <c r="B268" t="s">
         <v>14</v>
@@ -5691,7 +5741,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" s="1"/>
       <c r="B269" t="s">
         <v>14</v>
@@ -5700,7 +5750,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" s="1"/>
       <c r="B270" t="s">
         <v>14</v>
@@ -5709,7 +5759,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" s="1"/>
       <c r="B271" t="s">
         <v>14</v>
@@ -5718,7 +5768,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" s="1"/>
       <c r="B272" t="s">
         <v>14</v>
@@ -5727,7 +5777,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" s="1"/>
       <c r="B273" t="s">
         <v>14</v>
@@ -5736,7 +5786,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" s="1"/>
       <c r="B274" t="s">
         <v>14</v>
@@ -5745,7 +5795,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" s="1"/>
       <c r="B275" t="s">
         <v>14</v>
@@ -5754,7 +5804,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" s="1"/>
       <c r="B276" t="s">
         <v>14</v>
@@ -5763,7 +5813,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" s="1"/>
       <c r="B277" t="s">
         <v>14</v>
@@ -5772,7 +5822,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" s="1"/>
       <c r="B278" t="s">
         <v>14</v>
@@ -5781,7 +5831,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" s="1"/>
       <c r="B279" t="s">
         <v>14</v>
@@ -5790,7 +5840,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" s="1"/>
       <c r="B280" t="s">
         <v>14</v>
@@ -5799,7 +5849,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" s="1"/>
       <c r="B281" t="s">
         <v>14</v>
@@ -5808,7 +5858,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" s="1"/>
       <c r="B282" t="s">
         <v>14</v>
@@ -5817,7 +5867,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" s="1"/>
       <c r="B283" t="s">
         <v>14</v>
@@ -5826,7 +5876,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" s="1"/>
       <c r="B284" t="s">
         <v>14</v>
@@ -5835,7 +5885,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" s="1"/>
       <c r="B285" t="s">
         <v>14</v>
@@ -5844,7 +5894,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" s="1"/>
       <c r="B286" t="s">
         <v>14</v>
@@ -5853,7 +5903,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" s="1"/>
       <c r="B287" t="s">
         <v>14</v>
@@ -5862,7 +5912,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" s="1"/>
       <c r="B288" t="s">
         <v>14</v>
@@ -5871,7 +5921,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" s="1"/>
       <c r="B289" t="s">
         <v>14</v>
@@ -5880,7 +5930,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" s="1"/>
       <c r="B290" t="s">
         <v>14</v>
@@ -5889,7 +5939,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" s="1"/>
       <c r="B291" t="s">
         <v>14</v>
@@ -5898,7 +5948,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" s="1"/>
       <c r="B292" t="s">
         <v>14</v>
@@ -5907,7 +5957,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" s="1"/>
       <c r="B293" t="s">
         <v>14</v>
@@ -5916,7 +5966,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" s="1"/>
       <c r="B294" t="s">
         <v>14</v>
@@ -5925,7 +5975,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" s="1"/>
       <c r="B295" t="s">
         <v>14</v>
@@ -5934,7 +5984,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" s="1"/>
       <c r="B296" t="s">
         <v>14</v>
@@ -5943,7 +5993,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" s="1"/>
       <c r="B297" t="s">
         <v>14</v>
@@ -5952,7 +6002,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" s="1"/>
       <c r="B298" t="s">
         <v>14</v>
@@ -5961,7 +6011,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" s="1"/>
       <c r="B299" t="s">
         <v>14</v>
@@ -5970,7 +6020,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" s="1"/>
       <c r="B300" t="s">
         <v>14</v>
@@ -5979,7 +6029,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" s="1"/>
       <c r="B301" t="s">
         <v>14</v>
@@ -5988,7 +6038,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B302" t="s">
         <v>14</v>
       </c>
@@ -5996,7 +6046,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B303" t="s">
         <v>14</v>
       </c>
@@ -6004,7 +6054,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B304" t="s">
         <v>14</v>
       </c>
@@ -6012,7 +6062,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="305" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B305" t="s">
         <v>14</v>
       </c>
@@ -6020,7 +6070,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="306" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B306" t="s">
         <v>14</v>
       </c>
@@ -6028,7 +6078,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="307" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B307" t="s">
         <v>14</v>
       </c>
@@ -6036,7 +6086,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="308" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B308" t="s">
         <v>14</v>
       </c>
@@ -6044,7 +6094,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="309" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B309" t="s">
         <v>14</v>
       </c>
@@ -6052,7 +6102,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="310" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B310" t="s">
         <v>14</v>
       </c>
@@ -6060,7 +6110,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="311" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B311" t="s">
         <v>14</v>
       </c>
@@ -6068,7 +6118,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="312" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B312" t="s">
         <v>14</v>
       </c>
@@ -6076,7 +6126,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="313" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B313" t="s">
         <v>14</v>
       </c>
@@ -6084,7 +6134,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="314" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B314" t="s">
         <v>14</v>
       </c>
@@ -6092,7 +6142,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="315" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B315" t="s">
         <v>14</v>
       </c>
@@ -6100,7 +6150,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="316" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B316" t="s">
         <v>14</v>
       </c>
@@ -6108,7 +6158,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="317" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B317" t="s">
         <v>14</v>
       </c>
@@ -6116,7 +6166,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="318" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B318" t="s">
         <v>14</v>
       </c>
@@ -6124,7 +6174,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="319" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B319" t="s">
         <v>14</v>
       </c>
@@ -6132,7 +6182,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="320" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B320" t="s">
         <v>14</v>
       </c>
@@ -6140,7 +6190,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="321" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B321" t="s">
         <v>14</v>
       </c>
@@ -6148,7 +6198,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="322" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B322" t="s">
         <v>14</v>
       </c>
@@ -6156,7 +6206,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="323" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B323" t="s">
         <v>14</v>
       </c>
@@ -6164,7 +6214,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="324" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B324" t="s">
         <v>14</v>
       </c>
@@ -6172,7 +6222,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="325" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B325" t="s">
         <v>14</v>
       </c>
@@ -6180,7 +6230,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="326" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B326" t="s">
         <v>14</v>
       </c>
@@ -6188,7 +6238,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="327" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B327" t="s">
         <v>14</v>
       </c>
@@ -6196,7 +6246,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="328" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B328" t="s">
         <v>14</v>
       </c>
@@ -6204,7 +6254,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="329" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B329" t="s">
         <v>14</v>
       </c>
@@ -6212,7 +6262,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="330" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B330" t="s">
         <v>14</v>
       </c>
@@ -6220,7 +6270,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="331" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B331" t="s">
         <v>14</v>
       </c>
@@ -6228,7 +6278,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="332" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B332" t="s">
         <v>14</v>
       </c>
@@ -6236,7 +6286,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="333" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B333" t="s">
         <v>14</v>
       </c>
@@ -6244,7 +6294,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="334" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B334" t="s">
         <v>14</v>
       </c>
@@ -6252,7 +6302,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="335" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B335" t="s">
         <v>14</v>
       </c>
@@ -6260,7 +6310,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="336" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B336" t="s">
         <v>14</v>
       </c>
@@ -6268,7 +6318,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="337" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B337" t="s">
         <v>14</v>
       </c>
@@ -6276,7 +6326,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="338" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B338" t="s">
         <v>14</v>
       </c>
@@ -6284,7 +6334,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="339" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B339" t="s">
         <v>14</v>
       </c>
@@ -6292,7 +6342,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="340" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B340" t="s">
         <v>14</v>
       </c>
@@ -6300,7 +6350,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="341" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B341" t="s">
         <v>14</v>
       </c>
@@ -6308,7 +6358,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="342" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B342" t="s">
         <v>14</v>
       </c>
@@ -6316,7 +6366,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="343" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B343" t="s">
         <v>14</v>
       </c>
@@ -6324,7 +6374,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="344" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B344" t="s">
         <v>14</v>
       </c>
@@ -6332,7 +6382,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="345" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B345" t="s">
         <v>14</v>
       </c>
@@ -6340,7 +6390,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="346" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B346" t="s">
         <v>14</v>
       </c>
@@ -6348,7 +6398,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="347" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B347" t="s">
         <v>14</v>
       </c>
@@ -6356,7 +6406,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="348" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B348" t="s">
         <v>14</v>
       </c>
@@ -6364,7 +6414,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="349" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B349" t="s">
         <v>14</v>
       </c>
@@ -6372,7 +6422,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="350" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B350" t="s">
         <v>14</v>
       </c>
@@ -6380,7 +6430,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="351" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B351" t="s">
         <v>14</v>
       </c>
@@ -6388,7 +6438,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="352" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B352" t="s">
         <v>14</v>
       </c>
@@ -6396,7 +6446,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="353" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B353" t="s">
         <v>14</v>
       </c>
@@ -6404,7 +6454,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="354" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B354" t="s">
         <v>14</v>
       </c>
@@ -6412,7 +6462,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="355" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B355" t="s">
         <v>14</v>
       </c>
@@ -6420,7 +6470,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="356" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B356" t="s">
         <v>14</v>
       </c>
@@ -6428,7 +6478,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="357" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B357" t="s">
         <v>14</v>
       </c>
@@ -6436,7 +6486,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="358" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B358" t="s">
         <v>14</v>
       </c>
@@ -6444,7 +6494,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="359" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B359" t="s">
         <v>14</v>
       </c>
@@ -6452,7 +6502,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="360" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B360" t="s">
         <v>14</v>
       </c>
@@ -6460,7 +6510,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="361" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B361" t="s">
         <v>14</v>
       </c>
@@ -6468,7 +6518,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="362" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B362" t="s">
         <v>14</v>
       </c>
@@ -6476,7 +6526,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="363" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B363" t="s">
         <v>14</v>
       </c>
@@ -6484,7 +6534,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="364" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B364" t="s">
         <v>14</v>
       </c>
@@ -6492,7 +6542,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="365" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B365" t="s">
         <v>14</v>
       </c>
@@ -6500,7 +6550,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="366" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B366" t="s">
         <v>14</v>
       </c>
@@ -6508,7 +6558,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="367" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B367" t="s">
         <v>14</v>
       </c>
@@ -6516,7 +6566,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="368" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B368" t="s">
         <v>14</v>
       </c>
@@ -6524,7 +6574,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="369" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B369" t="s">
         <v>14</v>
       </c>
@@ -6532,7 +6582,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="370" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B370" t="s">
         <v>14</v>
       </c>
@@ -6540,7 +6590,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="371" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B371" t="s">
         <v>14</v>
       </c>
@@ -6548,7 +6598,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="372" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B372" t="s">
         <v>14</v>
       </c>
@@ -6556,7 +6606,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="373" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B373" t="s">
         <v>14</v>
       </c>
@@ -6564,7 +6614,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="374" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B374" t="s">
         <v>14</v>
       </c>
@@ -6572,7 +6622,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="375" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B375" t="s">
         <v>14</v>
       </c>
@@ -6580,7 +6630,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="376" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B376" t="s">
         <v>14</v>
       </c>
@@ -6588,7 +6638,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="377" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B377" t="s">
         <v>14</v>
       </c>
@@ -6596,7 +6646,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="378" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B378" t="s">
         <v>14</v>
       </c>
@@ -6604,7 +6654,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="379" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B379" t="s">
         <v>14</v>
       </c>
@@ -6612,7 +6662,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="380" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B380" t="s">
         <v>14</v>
       </c>
@@ -6620,7 +6670,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="381" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B381" t="s">
         <v>14</v>
       </c>
@@ -6628,7 +6678,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="382" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B382" t="s">
         <v>14</v>
       </c>
@@ -6636,7 +6686,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="383" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B383" t="s">
         <v>14</v>
       </c>
@@ -6644,7 +6694,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="384" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B384" t="s">
         <v>14</v>
       </c>
@@ -6652,7 +6702,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="385" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B385" t="s">
         <v>14</v>
       </c>
@@ -6660,7 +6710,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="386" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B386" t="s">
         <v>14</v>
       </c>
@@ -6668,7 +6718,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="387" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B387" t="s">
         <v>14</v>
       </c>
@@ -6676,7 +6726,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="388" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B388" t="s">
         <v>14</v>
       </c>
@@ -6684,7 +6734,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="389" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B389" t="s">
         <v>14</v>
       </c>
@@ -6692,7 +6742,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="390" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B390" t="s">
         <v>14</v>
       </c>
@@ -6700,7 +6750,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="391" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B391" t="s">
         <v>14</v>
       </c>
@@ -6708,7 +6758,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="392" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B392" t="s">
         <v>14</v>
       </c>
@@ -6716,7 +6766,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="393" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B393" t="s">
         <v>14</v>
       </c>
@@ -6724,7 +6774,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="394" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B394" t="s">
         <v>14</v>
       </c>
@@ -6732,7 +6782,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="395" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B395" t="s">
         <v>14</v>
       </c>
@@ -6740,7 +6790,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="396" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B396" t="s">
         <v>14</v>
       </c>
@@ -6748,7 +6798,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="397" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B397" t="s">
         <v>14</v>
       </c>
@@ -6756,7 +6806,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="398" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B398" t="s">
         <v>14</v>
       </c>
@@ -6764,7 +6814,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="399" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B399" t="s">
         <v>14</v>
       </c>
@@ -6772,7 +6822,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="400" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B400" t="s">
         <v>14</v>
       </c>
@@ -6780,7 +6830,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="401" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B401" t="s">
         <v>14</v>
       </c>
@@ -6788,7 +6838,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="402" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B402" t="s">
         <v>14</v>
       </c>
@@ -6796,7 +6846,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="403" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B403" t="s">
         <v>14</v>
       </c>
@@ -6804,7 +6854,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="404" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B404" t="s">
         <v>14</v>
       </c>
@@ -6812,7 +6862,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="405" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B405" t="s">
         <v>14</v>
       </c>
@@ -6820,7 +6870,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="406" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B406" t="s">
         <v>14</v>
       </c>
@@ -6828,7 +6878,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="407" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B407" t="s">
         <v>14</v>
       </c>
@@ -6836,7 +6886,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="408" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B408" t="s">
         <v>14</v>
       </c>
@@ -6844,7 +6894,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="409" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B409" t="s">
         <v>14</v>
       </c>
@@ -6852,7 +6902,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="410" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B410" t="s">
         <v>14</v>
       </c>
@@ -6860,7 +6910,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="411" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B411" t="s">
         <v>14</v>
       </c>
@@ -6868,7 +6918,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="412" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B412" t="s">
         <v>14</v>
       </c>
@@ -6876,7 +6926,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="413" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B413" t="s">
         <v>14</v>
       </c>
@@ -6884,7 +6934,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="414" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B414" t="s">
         <v>14</v>
       </c>
@@ -6892,7 +6942,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="415" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B415" t="s">
         <v>14</v>
       </c>
@@ -6900,7 +6950,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="416" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B416" t="s">
         <v>14</v>
       </c>
@@ -6908,7 +6958,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="417" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B417" t="s">
         <v>14</v>
       </c>
@@ -6916,7 +6966,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="418" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B418" t="s">
         <v>14</v>
       </c>
@@ -6924,7 +6974,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="419" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B419" t="s">
         <v>14</v>
       </c>
@@ -6932,7 +6982,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="420" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B420" t="s">
         <v>14</v>
       </c>
@@ -6940,7 +6990,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="421" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B421" t="s">
         <v>14</v>
       </c>
@@ -6948,7 +6998,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="422" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B422" t="s">
         <v>14</v>
       </c>
@@ -6956,7 +7006,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="423" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B423" t="s">
         <v>14</v>
       </c>
@@ -6964,7 +7014,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="424" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B424" t="s">
         <v>14</v>
       </c>
@@ -6972,7 +7022,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="425" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B425" t="s">
         <v>14</v>
       </c>
@@ -6980,7 +7030,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="426" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B426" t="s">
         <v>14</v>
       </c>
@@ -6988,7 +7038,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="427" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B427" t="s">
         <v>14</v>
       </c>
@@ -6996,7 +7046,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="428" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B428" t="s">
         <v>14</v>
       </c>
@@ -7004,7 +7054,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="429" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B429" t="s">
         <v>14</v>
       </c>
@@ -7012,7 +7062,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="430" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B430" t="s">
         <v>14</v>
       </c>
@@ -7020,7 +7070,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="431" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B431" t="s">
         <v>14</v>
       </c>
@@ -7028,7 +7078,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="432" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B432" t="s">
         <v>14</v>
       </c>
@@ -7036,7 +7086,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="433" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B433" t="s">
         <v>14</v>
       </c>
@@ -7044,7 +7094,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="434" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B434" t="s">
         <v>14</v>
       </c>
@@ -7052,7 +7102,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="435" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B435" t="s">
         <v>14</v>
       </c>
@@ -7060,7 +7110,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="436" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B436" t="s">
         <v>14</v>
       </c>
@@ -7068,7 +7118,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="437" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B437" t="s">
         <v>14</v>
       </c>
@@ -7076,7 +7126,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="438" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B438" t="s">
         <v>14</v>
       </c>
@@ -7084,7 +7134,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="439" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B439" t="s">
         <v>14</v>
       </c>
@@ -7092,7 +7142,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="440" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B440" t="s">
         <v>14</v>
       </c>
@@ -7100,7 +7150,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="441" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B441" t="s">
         <v>14</v>
       </c>
@@ -7108,7 +7158,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="442" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B442" t="s">
         <v>14</v>
       </c>
@@ -7116,7 +7166,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="443" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B443" t="s">
         <v>14</v>
       </c>
@@ -7124,7 +7174,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="444" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B444" t="s">
         <v>14</v>
       </c>
@@ -7132,7 +7182,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="445" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B445" t="s">
         <v>14</v>
       </c>
@@ -7140,7 +7190,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="446" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B446" t="s">
         <v>14</v>
       </c>
@@ -7148,7 +7198,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="447" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B447" t="s">
         <v>14</v>
       </c>
@@ -7156,7 +7206,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="448" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B448" t="s">
         <v>14</v>
       </c>
@@ -7164,7 +7214,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="449" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B449" t="s">
         <v>14</v>
       </c>
@@ -7172,7 +7222,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="450" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B450" t="s">
         <v>14</v>
       </c>
@@ -7180,7 +7230,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="451" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B451" t="s">
         <v>14</v>
       </c>
@@ -7188,7 +7238,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="452" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B452" t="s">
         <v>14</v>
       </c>
@@ -7196,7 +7246,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="453" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B453" t="s">
         <v>14</v>
       </c>
@@ -7204,7 +7254,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="454" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B454" t="s">
         <v>14</v>
       </c>
@@ -7212,7 +7262,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="455" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B455" t="s">
         <v>14</v>
       </c>
@@ -7220,7 +7270,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="456" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B456" t="s">
         <v>14</v>
       </c>
@@ -7228,7 +7278,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="457" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B457" t="s">
         <v>14</v>
       </c>
@@ -7236,7 +7286,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="458" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B458" t="s">
         <v>14</v>
       </c>
@@ -7244,7 +7294,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="459" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B459" t="s">
         <v>14</v>
       </c>
@@ -7252,7 +7302,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="460" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B460" t="s">
         <v>14</v>
       </c>
@@ -7260,7 +7310,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="461" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B461" t="s">
         <v>14</v>
       </c>
@@ -7268,7 +7318,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="462" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B462" t="s">
         <v>14</v>
       </c>
@@ -7276,7 +7326,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="463" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B463" t="s">
         <v>14</v>
       </c>
@@ -7284,7 +7334,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="464" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B464" t="s">
         <v>14</v>
       </c>
@@ -7292,7 +7342,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="465" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B465" t="s">
         <v>14</v>
       </c>
@@ -7300,7 +7350,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="466" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B466" t="s">
         <v>14</v>
       </c>
@@ -7308,7 +7358,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="467" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B467" t="s">
         <v>14</v>
       </c>
@@ -7316,7 +7366,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="468" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B468" t="s">
         <v>14</v>
       </c>
@@ -7324,7 +7374,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="469" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B469" t="s">
         <v>14</v>
       </c>
@@ -7332,7 +7382,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="470" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B470" t="s">
         <v>14</v>
       </c>
@@ -7340,7 +7390,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="471" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B471" t="s">
         <v>14</v>
       </c>
@@ -7348,7 +7398,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="472" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B472" t="s">
         <v>14</v>
       </c>
@@ -7356,7 +7406,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="473" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B473" t="s">
         <v>14</v>
       </c>
@@ -7364,7 +7414,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="474" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B474" t="s">
         <v>14</v>
       </c>
@@ -7372,7 +7422,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="475" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B475" t="s">
         <v>14</v>
       </c>
@@ -7380,7 +7430,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="476" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B476" t="s">
         <v>14</v>
       </c>
@@ -7388,7 +7438,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="477" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B477" t="s">
         <v>14</v>
       </c>
@@ -7396,7 +7446,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="478" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B478" t="s">
         <v>14</v>
       </c>
@@ -7404,7 +7454,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="479" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B479" t="s">
         <v>14</v>
       </c>
@@ -7412,7 +7462,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="480" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B480" t="s">
         <v>14</v>
       </c>
@@ -7420,7 +7470,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="481" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="481" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B481" t="s">
         <v>14</v>
       </c>
@@ -7428,7 +7478,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="482" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="482" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B482" t="s">
         <v>14</v>
       </c>
@@ -7436,7 +7486,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="483" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="483" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B483" t="s">
         <v>14</v>
       </c>
@@ -7444,7 +7494,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="484" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="484" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B484" t="s">
         <v>14</v>
       </c>
@@ -7452,7 +7502,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="485" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="485" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B485" t="s">
         <v>14</v>
       </c>
@@ -7460,7 +7510,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="486" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="486" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B486" t="s">
         <v>14</v>
       </c>
@@ -7468,7 +7518,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="487" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="487" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B487" t="s">
         <v>14</v>
       </c>
@@ -7476,7 +7526,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="488" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="488" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B488" t="s">
         <v>14</v>
       </c>
@@ -7484,7 +7534,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="489" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="489" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B489" t="s">
         <v>14</v>
       </c>
@@ -7492,7 +7542,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="490" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="490" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B490" t="s">
         <v>14</v>
       </c>
@@ -7500,7 +7550,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="491" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="491" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B491" t="s">
         <v>14</v>
       </c>
@@ -7508,7 +7558,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="492" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="492" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B492" t="s">
         <v>14</v>
       </c>
@@ -7516,7 +7566,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="493" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="493" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B493" t="s">
         <v>14</v>
       </c>
@@ -7524,7 +7574,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="494" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="494" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B494" t="s">
         <v>14</v>
       </c>
@@ -7532,7 +7582,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="495" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="495" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B495" t="s">
         <v>14</v>
       </c>
@@ -7540,7 +7590,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="496" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="496" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B496" t="s">
         <v>14</v>
       </c>
@@ -7548,7 +7598,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="497" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="497" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B497" t="s">
         <v>14</v>
       </c>
@@ -7556,7 +7606,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="498" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="498" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B498" t="s">
         <v>14</v>
       </c>
@@ -7564,7 +7614,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="499" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="499" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B499" t="s">
         <v>14</v>
       </c>
@@ -7572,7 +7622,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="500" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="500" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B500" t="s">
         <v>14</v>
       </c>
@@ -7587,6 +7637,9 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId4"/>
+  </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
@@ -7616,73 +7669,73 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42" customWidth="1"/>
-    <col min="2" max="2" width="36.625" customWidth="1"/>
+    <col min="1" max="1" width="42.046875" customWidth="1"/>
+    <col min="2" max="2" width="36.62109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -7700,18 +7753,18 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.9921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.0703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.08203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.37109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.55078125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>21</v>
       </c>
@@ -7719,7 +7772,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
@@ -7733,7 +7786,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
@@ -7745,7 +7798,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>19</v>
       </c>

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{91F77B37-9A08-BD41-A22C-1E7D11FEACD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{662D0348-2BBC-1D4D-BE20-D84065DE7027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{906AC16C-7A00-4349-BCA4-49CEC51B032C}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="37">
   <si>
     <t>Datum</t>
   </si>
@@ -136,13 +136,16 @@
     <t>6. Vorlesung</t>
   </si>
   <si>
-    <t>Begann Skill auf Azure Cloud umzusiedeln</t>
-  </si>
-  <si>
     <t>Intents und Handler für NumberOfPlayer und AddPlayer hinzugefügt</t>
   </si>
   <si>
     <t xml:space="preserve">LaunchRequestHandler modifiziert und basic YesIntent und -Handler hinzugefügt </t>
+  </si>
+  <si>
+    <t>Begann Skill auf Azure Cloud umzusiedeln und cleanup</t>
+  </si>
+  <si>
+    <t>Läuft nun auf Azure Cloud, bug-fixes und cleanup</t>
   </si>
 </sst>
 </file>
@@ -226,6 +229,12 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -242,12 +251,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2828,7 +2831,7 @@
     <dataField name="Summe von Dauer" fld="1" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="2">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -2845,7 +2848,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF715391-FA44-3548-A597-CFB4FF6ADA59}" name="Tabelle1" displayName="Tabelle1" ref="A5:F500" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF715391-FA44-3548-A597-CFB4FF6ADA59}" name="Tabelle1" displayName="Tabelle1" ref="A5:F500" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A5:F500" xr:uid="{BF715391-FA44-3548-A597-CFB4FF6ADA59}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{9A0412E2-7A1E-F042-AA73-002A1CCF7288}" name="Datum"/>
@@ -3159,8 +3162,8 @@
   <dimension ref="A3:F500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3179,7 +3182,7 @@
       </c>
       <c r="C3" s="6">
         <f>SUM(C6:C300)</f>
-        <v>2.2812499999999996</v>
+        <v>2.3749999999999996</v>
       </c>
       <c r="D3" s="6"/>
     </row>
@@ -3492,7 +3495,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -3509,7 +3512,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -3560,16 +3563,24 @@
         <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
+      <c r="A27" s="1">
+        <v>44889</v>
+      </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="C27" s="3">
+        <v>9.375E-2</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="E27" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\labor\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{662D0348-2BBC-1D4D-BE20-D84065DE7027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9039EAF-ECF7-4E0D-A3B1-EF81265886FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{906AC16C-7A00-4349-BCA4-49CEC51B032C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{906AC16C-7A00-4349-BCA4-49CEC51B032C}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeiterfassung" sheetId="1" r:id="rId1"/>
@@ -25,23 +25,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="36">
   <si>
     <t>Datum</t>
   </si>
@@ -146,6 +135,9 @@
   </si>
   <si>
     <t>Läuft nun auf Azure Cloud, bug-fixes und cleanup</t>
+  </si>
+  <si>
+    <t>AddPlayerIntentHandler funktioniert nun</t>
   </si>
 </sst>
 </file>
@@ -3163,30 +3155,30 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="43.52734375" customWidth="1"/>
-    <col min="3" max="3" width="17.5078125" customWidth="1"/>
-    <col min="4" max="4" width="39.953125" customWidth="1"/>
-    <col min="5" max="5" width="57.33984375" customWidth="1"/>
-    <col min="6" max="6" width="46.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.375" customWidth="1"/>
+    <col min="2" max="2" width="43.5" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="40" customWidth="1"/>
+    <col min="5" max="5" width="57.375" customWidth="1"/>
+    <col min="6" max="6" width="46.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="6">
         <f>SUM(C6:C300)</f>
-        <v>2.3749999999999996</v>
+        <v>2.3749999999999991</v>
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
@@ -3206,7 +3198,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44839</v>
       </c>
@@ -3226,7 +3218,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44839</v>
       </c>
@@ -3243,7 +3235,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44839</v>
       </c>
@@ -3260,7 +3252,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44853</v>
       </c>
@@ -3277,7 +3269,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44853</v>
       </c>
@@ -3294,7 +3286,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44853</v>
       </c>
@@ -3311,7 +3303,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44862</v>
       </c>
@@ -3328,7 +3320,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44862</v>
       </c>
@@ -3345,7 +3337,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44862</v>
       </c>
@@ -3362,7 +3354,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44867</v>
       </c>
@@ -3379,7 +3371,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44867</v>
       </c>
@@ -3396,7 +3388,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44867</v>
       </c>
@@ -3413,7 +3405,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44873</v>
       </c>
@@ -3430,7 +3422,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44881</v>
       </c>
@@ -3447,7 +3439,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44881</v>
       </c>
@@ -3464,7 +3456,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44881</v>
       </c>
@@ -3481,7 +3473,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44881</v>
       </c>
@@ -3498,7 +3490,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44883</v>
       </c>
@@ -3515,7 +3507,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44888</v>
       </c>
@@ -3532,7 +3524,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44888</v>
       </c>
@@ -3549,7 +3541,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>44888</v>
       </c>
@@ -3557,7 +3549,7 @@
         <v>23</v>
       </c>
       <c r="C26" s="3">
-        <v>0.27083333333333331</v>
+        <v>0.22916666666666666</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>10</v>
@@ -3566,7 +3558,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44889</v>
       </c>
@@ -3583,16 +3575,24 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>44890</v>
+      </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="C28" s="3">
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" t="s">
         <v>14</v>
@@ -3601,7 +3601,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" t="s">
         <v>14</v>
@@ -3610,7 +3610,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" t="s">
         <v>14</v>
@@ -3619,7 +3619,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" t="s">
         <v>14</v>
@@ -3628,7 +3628,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" t="s">
         <v>14</v>
@@ -3637,7 +3637,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" t="s">
         <v>14</v>
@@ -3646,7 +3646,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" t="s">
         <v>14</v>
@@ -3655,7 +3655,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" t="s">
         <v>14</v>
@@ -3664,7 +3664,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" t="s">
         <v>14</v>
@@ -3673,7 +3673,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" t="s">
         <v>14</v>
@@ -3682,7 +3682,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" t="s">
         <v>14</v>
@@ -3691,7 +3691,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" t="s">
         <v>14</v>
@@ -3700,7 +3700,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" t="s">
         <v>14</v>
@@ -3709,7 +3709,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" t="s">
         <v>14</v>
@@ -3718,7 +3718,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" t="s">
         <v>14</v>
@@ -3727,7 +3727,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" t="s">
         <v>14</v>
@@ -3736,7 +3736,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" t="s">
         <v>14</v>
@@ -3745,7 +3745,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" t="s">
         <v>14</v>
@@ -3754,7 +3754,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" t="s">
         <v>14</v>
@@ -3763,7 +3763,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" t="s">
         <v>14</v>
@@ -3772,7 +3772,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" t="s">
         <v>14</v>
@@ -3781,7 +3781,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" t="s">
         <v>14</v>
@@ -3790,7 +3790,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" t="s">
         <v>14</v>
@@ -3799,7 +3799,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" t="s">
         <v>14</v>
@@ -3808,7 +3808,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" t="s">
         <v>14</v>
@@ -3817,7 +3817,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" t="s">
         <v>14</v>
@@ -3826,7 +3826,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" t="s">
         <v>14</v>
@@ -3835,7 +3835,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" t="s">
         <v>14</v>
@@ -3844,7 +3844,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" t="s">
         <v>14</v>
@@ -3853,7 +3853,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" t="s">
         <v>14</v>
@@ -3862,7 +3862,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" t="s">
         <v>14</v>
@@ -3871,7 +3871,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" t="s">
         <v>14</v>
@@ -3880,7 +3880,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" t="s">
         <v>14</v>
@@ -3889,7 +3889,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" t="s">
         <v>14</v>
@@ -3898,7 +3898,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" t="s">
         <v>14</v>
@@ -3907,7 +3907,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" t="s">
         <v>14</v>
@@ -3916,7 +3916,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" t="s">
         <v>14</v>
@@ -3925,7 +3925,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" t="s">
         <v>14</v>
@@ -3934,7 +3934,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" t="s">
         <v>14</v>
@@ -3943,7 +3943,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" t="s">
         <v>14</v>
@@ -3952,7 +3952,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" t="s">
         <v>14</v>
@@ -3961,7 +3961,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" t="s">
         <v>14</v>
@@ -3970,7 +3970,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" t="s">
         <v>14</v>
@@ -3979,7 +3979,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" t="s">
         <v>14</v>
@@ -3988,7 +3988,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" t="s">
         <v>14</v>
@@ -3997,7 +3997,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" t="s">
         <v>14</v>
@@ -4006,7 +4006,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" t="s">
         <v>14</v>
@@ -4015,7 +4015,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" t="s">
         <v>14</v>
@@ -4024,7 +4024,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" t="s">
         <v>14</v>
@@ -4033,7 +4033,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" t="s">
         <v>14</v>
@@ -4042,7 +4042,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" t="s">
         <v>14</v>
@@ -4051,7 +4051,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" t="s">
         <v>14</v>
@@ -4060,7 +4060,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" t="s">
         <v>14</v>
@@ -4069,7 +4069,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" t="s">
         <v>14</v>
@@ -4078,7 +4078,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" t="s">
         <v>14</v>
@@ -4087,7 +4087,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" t="s">
         <v>14</v>
@@ -4096,7 +4096,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" t="s">
         <v>14</v>
@@ -4105,7 +4105,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" t="s">
         <v>14</v>
@@ -4114,7 +4114,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" t="s">
         <v>14</v>
@@ -4123,7 +4123,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" t="s">
         <v>14</v>
@@ -4132,7 +4132,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" t="s">
         <v>14</v>
@@ -4141,7 +4141,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" t="s">
         <v>14</v>
@@ -4150,7 +4150,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" t="s">
         <v>14</v>
@@ -4159,7 +4159,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" t="s">
         <v>14</v>
@@ -4168,7 +4168,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" t="s">
         <v>14</v>
@@ -4177,7 +4177,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" t="s">
         <v>14</v>
@@ -4186,7 +4186,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" t="s">
         <v>14</v>
@@ -4195,7 +4195,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" t="s">
         <v>14</v>
@@ -4204,7 +4204,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" t="s">
         <v>14</v>
@@ -4213,7 +4213,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" t="s">
         <v>14</v>
@@ -4222,7 +4222,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" t="s">
         <v>14</v>
@@ -4231,7 +4231,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" t="s">
         <v>14</v>
@@ -4240,7 +4240,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" t="s">
         <v>14</v>
@@ -4249,7 +4249,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" t="s">
         <v>14</v>
@@ -4258,7 +4258,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" t="s">
         <v>14</v>
@@ -4267,7 +4267,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" t="s">
         <v>14</v>
@@ -4276,7 +4276,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" t="s">
         <v>14</v>
@@ -4285,7 +4285,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" t="s">
         <v>14</v>
@@ -4294,7 +4294,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" t="s">
         <v>14</v>
@@ -4303,7 +4303,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" t="s">
         <v>14</v>
@@ -4312,7 +4312,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" t="s">
         <v>14</v>
@@ -4321,7 +4321,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" t="s">
         <v>14</v>
@@ -4330,7 +4330,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" t="s">
         <v>14</v>
@@ -4339,7 +4339,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" t="s">
         <v>14</v>
@@ -4348,7 +4348,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" t="s">
         <v>14</v>
@@ -4357,7 +4357,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" t="s">
         <v>14</v>
@@ -4366,7 +4366,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" t="s">
         <v>14</v>
@@ -4375,7 +4375,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" t="s">
         <v>14</v>
@@ -4384,7 +4384,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" t="s">
         <v>14</v>
@@ -4393,7 +4393,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" t="s">
         <v>14</v>
@@ -4402,7 +4402,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" t="s">
         <v>14</v>
@@ -4411,7 +4411,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" t="s">
         <v>14</v>
@@ -4420,7 +4420,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" t="s">
         <v>14</v>
@@ -4429,7 +4429,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" t="s">
         <v>14</v>
@@ -4438,7 +4438,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" t="s">
         <v>14</v>
@@ -4447,7 +4447,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" t="s">
         <v>14</v>
@@ -4456,7 +4456,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" t="s">
         <v>14</v>
@@ -4465,7 +4465,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" t="s">
         <v>14</v>
@@ -4474,7 +4474,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" t="s">
         <v>14</v>
@@ -4483,7 +4483,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" t="s">
         <v>14</v>
@@ -4492,7 +4492,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" t="s">
         <v>14</v>
@@ -4501,7 +4501,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" t="s">
         <v>14</v>
@@ -4510,7 +4510,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" t="s">
         <v>14</v>
@@ -4519,7 +4519,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" t="s">
         <v>14</v>
@@ -4528,7 +4528,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" t="s">
         <v>14</v>
@@ -4537,7 +4537,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" t="s">
         <v>14</v>
@@ -4546,7 +4546,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" t="s">
         <v>14</v>
@@ -4555,7 +4555,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" t="s">
         <v>14</v>
@@ -4564,7 +4564,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" t="s">
         <v>14</v>
@@ -4573,7 +4573,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" t="s">
         <v>14</v>
@@ -4582,7 +4582,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" t="s">
         <v>14</v>
@@ -4591,7 +4591,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" t="s">
         <v>14</v>
@@ -4600,7 +4600,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" t="s">
         <v>14</v>
@@ -4609,7 +4609,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" t="s">
         <v>14</v>
@@ -4618,7 +4618,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" t="s">
         <v>14</v>
@@ -4627,7 +4627,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" t="s">
         <v>14</v>
@@ -4636,7 +4636,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" t="s">
         <v>14</v>
@@ -4645,7 +4645,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" t="s">
         <v>14</v>
@@ -4654,7 +4654,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" t="s">
         <v>14</v>
@@ -4663,7 +4663,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" t="s">
         <v>14</v>
@@ -4672,7 +4672,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" t="s">
         <v>14</v>
@@ -4681,7 +4681,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" t="s">
         <v>14</v>
@@ -4690,7 +4690,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" t="s">
         <v>14</v>
@@ -4699,7 +4699,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" t="s">
         <v>14</v>
@@ -4708,7 +4708,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" t="s">
         <v>14</v>
@@ -4717,7 +4717,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" t="s">
         <v>14</v>
@@ -4726,7 +4726,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" t="s">
         <v>14</v>
@@ -4735,7 +4735,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" t="s">
         <v>14</v>
@@ -4744,7 +4744,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" t="s">
         <v>14</v>
@@ -4753,7 +4753,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" t="s">
         <v>14</v>
@@ -4762,7 +4762,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" t="s">
         <v>14</v>
@@ -4771,7 +4771,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" t="s">
         <v>14</v>
@@ -4780,7 +4780,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" t="s">
         <v>14</v>
@@ -4789,7 +4789,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" t="s">
         <v>14</v>
@@ -4798,7 +4798,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" t="s">
         <v>14</v>
@@ -4807,7 +4807,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" t="s">
         <v>14</v>
@@ -4816,7 +4816,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" t="s">
         <v>14</v>
@@ -4825,7 +4825,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" t="s">
         <v>14</v>
@@ -4834,7 +4834,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" t="s">
         <v>14</v>
@@ -4843,7 +4843,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" t="s">
         <v>14</v>
@@ -4852,7 +4852,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" t="s">
         <v>14</v>
@@ -4861,7 +4861,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" t="s">
         <v>14</v>
@@ -4870,7 +4870,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" t="s">
         <v>14</v>
@@ -4879,7 +4879,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" t="s">
         <v>14</v>
@@ -4888,7 +4888,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" t="s">
         <v>14</v>
@@ -4897,7 +4897,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" t="s">
         <v>14</v>
@@ -4906,7 +4906,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" t="s">
         <v>14</v>
@@ -4915,7 +4915,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" t="s">
         <v>14</v>
@@ -4924,7 +4924,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" t="s">
         <v>14</v>
@@ -4933,7 +4933,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" t="s">
         <v>14</v>
@@ -4942,7 +4942,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" t="s">
         <v>14</v>
@@ -4951,7 +4951,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" t="s">
         <v>14</v>
@@ -4960,7 +4960,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" t="s">
         <v>14</v>
@@ -4969,7 +4969,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" t="s">
         <v>14</v>
@@ -4978,7 +4978,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" t="s">
         <v>14</v>
@@ -4987,7 +4987,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" t="s">
         <v>14</v>
@@ -4996,7 +4996,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" t="s">
         <v>14</v>
@@ -5005,7 +5005,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" t="s">
         <v>14</v>
@@ -5014,7 +5014,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" t="s">
         <v>14</v>
@@ -5023,7 +5023,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" t="s">
         <v>14</v>
@@ -5032,7 +5032,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" t="s">
         <v>14</v>
@@ -5041,7 +5041,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" t="s">
         <v>14</v>
@@ -5050,7 +5050,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" t="s">
         <v>14</v>
@@ -5059,7 +5059,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" t="s">
         <v>14</v>
@@ -5068,7 +5068,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" t="s">
         <v>14</v>
@@ -5077,7 +5077,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" t="s">
         <v>14</v>
@@ -5086,7 +5086,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" t="s">
         <v>14</v>
@@ -5095,7 +5095,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" t="s">
         <v>14</v>
@@ -5104,7 +5104,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" t="s">
         <v>14</v>
@@ -5113,7 +5113,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" t="s">
         <v>14</v>
@@ -5122,7 +5122,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" t="s">
         <v>14</v>
@@ -5131,7 +5131,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" t="s">
         <v>14</v>
@@ -5140,7 +5140,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" t="s">
         <v>14</v>
@@ -5149,7 +5149,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" t="s">
         <v>14</v>
@@ -5158,7 +5158,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" t="s">
         <v>14</v>
@@ -5167,7 +5167,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" t="s">
         <v>14</v>
@@ -5176,7 +5176,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" t="s">
         <v>14</v>
@@ -5185,7 +5185,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" t="s">
         <v>14</v>
@@ -5194,7 +5194,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" t="s">
         <v>14</v>
@@ -5203,7 +5203,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" t="s">
         <v>14</v>
@@ -5212,7 +5212,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" t="s">
         <v>14</v>
@@ -5221,7 +5221,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" t="s">
         <v>14</v>
@@ -5230,7 +5230,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" t="s">
         <v>14</v>
@@ -5239,7 +5239,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" t="s">
         <v>14</v>
@@ -5248,7 +5248,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" t="s">
         <v>14</v>
@@ -5257,7 +5257,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" t="s">
         <v>14</v>
@@ -5266,7 +5266,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" t="s">
         <v>14</v>
@@ -5275,7 +5275,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" t="s">
         <v>14</v>
@@ -5284,7 +5284,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" t="s">
         <v>14</v>
@@ -5293,7 +5293,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" t="s">
         <v>14</v>
@@ -5302,7 +5302,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" t="s">
         <v>14</v>
@@ -5311,7 +5311,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" t="s">
         <v>14</v>
@@ -5320,7 +5320,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" t="s">
         <v>14</v>
@@ -5329,7 +5329,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" t="s">
         <v>14</v>
@@ -5338,7 +5338,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="B223" t="s">
         <v>14</v>
@@ -5347,7 +5347,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="B224" t="s">
         <v>14</v>
@@ -5356,7 +5356,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" t="s">
         <v>14</v>
@@ -5365,7 +5365,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226" t="s">
         <v>14</v>
@@ -5374,7 +5374,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" t="s">
         <v>14</v>
@@ -5383,7 +5383,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" t="s">
         <v>14</v>
@@ -5392,7 +5392,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" t="s">
         <v>14</v>
@@ -5401,7 +5401,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" t="s">
         <v>14</v>
@@ -5410,7 +5410,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" t="s">
         <v>14</v>
@@ -5419,7 +5419,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" t="s">
         <v>14</v>
@@ -5428,7 +5428,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" t="s">
         <v>14</v>
@@ -5437,7 +5437,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" t="s">
         <v>14</v>
@@ -5446,7 +5446,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" t="s">
         <v>14</v>
@@ -5455,7 +5455,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" t="s">
         <v>14</v>
@@ -5464,7 +5464,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" t="s">
         <v>14</v>
@@ -5473,7 +5473,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238" t="s">
         <v>14</v>
@@ -5482,7 +5482,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239" t="s">
         <v>14</v>
@@ -5491,7 +5491,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="B240" t="s">
         <v>14</v>
@@ -5500,7 +5500,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="B241" t="s">
         <v>14</v>
@@ -5509,7 +5509,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="B242" t="s">
         <v>14</v>
@@ -5518,7 +5518,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="B243" t="s">
         <v>14</v>
@@ -5527,7 +5527,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="B244" t="s">
         <v>14</v>
@@ -5536,7 +5536,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245" t="s">
         <v>14</v>
@@ -5545,7 +5545,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="B246" t="s">
         <v>14</v>
@@ -5554,7 +5554,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
       <c r="B247" t="s">
         <v>14</v>
@@ -5563,7 +5563,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
       <c r="B248" t="s">
         <v>14</v>
@@ -5572,7 +5572,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
       <c r="B249" t="s">
         <v>14</v>
@@ -5581,7 +5581,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
       <c r="B250" t="s">
         <v>14</v>
@@ -5590,7 +5590,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
       <c r="B251" t="s">
         <v>14</v>
@@ -5599,7 +5599,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
       <c r="B252" t="s">
         <v>14</v>
@@ -5608,7 +5608,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
       <c r="B253" t="s">
         <v>14</v>
@@ -5617,7 +5617,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
       <c r="B254" t="s">
         <v>14</v>
@@ -5626,7 +5626,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
       <c r="B255" t="s">
         <v>14</v>
@@ -5635,7 +5635,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
       <c r="B256" t="s">
         <v>14</v>
@@ -5644,7 +5644,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
       <c r="B257" t="s">
         <v>14</v>
@@ -5653,7 +5653,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
       <c r="B258" t="s">
         <v>14</v>
@@ -5662,7 +5662,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
       <c r="B259" t="s">
         <v>14</v>
@@ -5671,7 +5671,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="1"/>
       <c r="B260" t="s">
         <v>14</v>
@@ -5680,7 +5680,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
       <c r="B261" t="s">
         <v>14</v>
@@ -5689,7 +5689,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
       <c r="B262" t="s">
         <v>14</v>
@@ -5698,7 +5698,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
       <c r="B263" t="s">
         <v>14</v>
@@ -5707,7 +5707,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
       <c r="B264" t="s">
         <v>14</v>
@@ -5716,7 +5716,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
       <c r="B265" t="s">
         <v>14</v>
@@ -5725,7 +5725,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
       <c r="B266" t="s">
         <v>14</v>
@@ -5734,7 +5734,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
       <c r="B267" t="s">
         <v>14</v>
@@ -5743,7 +5743,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
       <c r="B268" t="s">
         <v>14</v>
@@ -5752,7 +5752,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
       <c r="B269" t="s">
         <v>14</v>
@@ -5761,7 +5761,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
       <c r="B270" t="s">
         <v>14</v>
@@ -5770,7 +5770,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
       <c r="B271" t="s">
         <v>14</v>
@@ -5779,7 +5779,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
       <c r="B272" t="s">
         <v>14</v>
@@ -5788,7 +5788,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
       <c r="B273" t="s">
         <v>14</v>
@@ -5797,7 +5797,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
       <c r="B274" t="s">
         <v>14</v>
@@ -5806,7 +5806,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
       <c r="B275" t="s">
         <v>14</v>
@@ -5815,7 +5815,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
       <c r="B276" t="s">
         <v>14</v>
@@ -5824,7 +5824,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
       <c r="B277" t="s">
         <v>14</v>
@@ -5833,7 +5833,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
       <c r="B278" t="s">
         <v>14</v>
@@ -5842,7 +5842,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
       <c r="B279" t="s">
         <v>14</v>
@@ -5851,7 +5851,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
       <c r="B280" t="s">
         <v>14</v>
@@ -5860,7 +5860,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
       <c r="B281" t="s">
         <v>14</v>
@@ -5869,7 +5869,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
       <c r="B282" t="s">
         <v>14</v>
@@ -5878,7 +5878,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
       <c r="B283" t="s">
         <v>14</v>
@@ -5887,7 +5887,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="1"/>
       <c r="B284" t="s">
         <v>14</v>
@@ -5896,7 +5896,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="1"/>
       <c r="B285" t="s">
         <v>14</v>
@@ -5905,7 +5905,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="1"/>
       <c r="B286" t="s">
         <v>14</v>
@@ -5914,7 +5914,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
       <c r="B287" t="s">
         <v>14</v>
@@ -5923,7 +5923,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
       <c r="B288" t="s">
         <v>14</v>
@@ -5932,7 +5932,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
       <c r="B289" t="s">
         <v>14</v>
@@ -5941,7 +5941,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
       <c r="B290" t="s">
         <v>14</v>
@@ -5950,7 +5950,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
       <c r="B291" t="s">
         <v>14</v>
@@ -5959,7 +5959,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="1"/>
       <c r="B292" t="s">
         <v>14</v>
@@ -5968,7 +5968,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="1"/>
       <c r="B293" t="s">
         <v>14</v>
@@ -5977,7 +5977,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="1"/>
       <c r="B294" t="s">
         <v>14</v>
@@ -5986,7 +5986,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="1"/>
       <c r="B295" t="s">
         <v>14</v>
@@ -5995,7 +5995,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
       <c r="B296" t="s">
         <v>14</v>
@@ -6004,7 +6004,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="1"/>
       <c r="B297" t="s">
         <v>14</v>
@@ -6013,7 +6013,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
       <c r="B298" t="s">
         <v>14</v>
@@ -6022,7 +6022,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
       <c r="B299" t="s">
         <v>14</v>
@@ -6031,7 +6031,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
       <c r="B300" t="s">
         <v>14</v>
@@ -6040,7 +6040,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="1"/>
       <c r="B301" t="s">
         <v>14</v>
@@ -6049,7 +6049,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B302" t="s">
         <v>14</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B303" t="s">
         <v>14</v>
       </c>
@@ -6065,7 +6065,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B304" t="s">
         <v>14</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="305" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B305" t="s">
         <v>14</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="306" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B306" t="s">
         <v>14</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="307" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="307" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B307" t="s">
         <v>14</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="308" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B308" t="s">
         <v>14</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="309" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B309" t="s">
         <v>14</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="310" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B310" t="s">
         <v>14</v>
       </c>
@@ -6121,7 +6121,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="311" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="311" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B311" t="s">
         <v>14</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="312" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B312" t="s">
         <v>14</v>
       </c>
@@ -6137,7 +6137,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="313" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B313" t="s">
         <v>14</v>
       </c>
@@ -6145,7 +6145,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="314" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="314" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B314" t="s">
         <v>14</v>
       </c>
@@ -6153,7 +6153,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="315" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B315" t="s">
         <v>14</v>
       </c>
@@ -6161,7 +6161,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="316" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="316" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B316" t="s">
         <v>14</v>
       </c>
@@ -6169,7 +6169,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="317" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="317" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B317" t="s">
         <v>14</v>
       </c>
@@ -6177,7 +6177,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="318" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="318" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B318" t="s">
         <v>14</v>
       </c>
@@ -6185,7 +6185,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="319" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="319" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B319" t="s">
         <v>14</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="320" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="320" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B320" t="s">
         <v>14</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="321" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="321" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B321" t="s">
         <v>14</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="322" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="322" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B322" t="s">
         <v>14</v>
       </c>
@@ -6217,7 +6217,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="323" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="323" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B323" t="s">
         <v>14</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="324" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="324" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B324" t="s">
         <v>14</v>
       </c>
@@ -6233,7 +6233,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="325" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="325" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B325" t="s">
         <v>14</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="326" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="326" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B326" t="s">
         <v>14</v>
       </c>
@@ -6249,7 +6249,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="327" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="327" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B327" t="s">
         <v>14</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="328" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="328" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B328" t="s">
         <v>14</v>
       </c>
@@ -6265,7 +6265,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="329" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="329" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B329" t="s">
         <v>14</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="330" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="330" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B330" t="s">
         <v>14</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="331" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="331" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B331" t="s">
         <v>14</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="332" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="332" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B332" t="s">
         <v>14</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="333" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="333" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B333" t="s">
         <v>14</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="334" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="334" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B334" t="s">
         <v>14</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="335" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="335" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B335" t="s">
         <v>14</v>
       </c>
@@ -6321,7 +6321,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="336" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="336" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B336" t="s">
         <v>14</v>
       </c>
@@ -6329,7 +6329,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="337" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="337" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B337" t="s">
         <v>14</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="338" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="338" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B338" t="s">
         <v>14</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="339" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="339" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B339" t="s">
         <v>14</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="340" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="340" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B340" t="s">
         <v>14</v>
       </c>
@@ -6361,7 +6361,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="341" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="341" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B341" t="s">
         <v>14</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="342" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="342" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B342" t="s">
         <v>14</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="343" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="343" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B343" t="s">
         <v>14</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="344" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="344" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B344" t="s">
         <v>14</v>
       </c>
@@ -6393,7 +6393,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="345" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="345" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B345" t="s">
         <v>14</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="346" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="346" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B346" t="s">
         <v>14</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="347" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="347" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B347" t="s">
         <v>14</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="348" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="348" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B348" t="s">
         <v>14</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="349" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="349" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B349" t="s">
         <v>14</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="350" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="350" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B350" t="s">
         <v>14</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="351" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="351" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B351" t="s">
         <v>14</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="352" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="352" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B352" t="s">
         <v>14</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="353" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="353" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B353" t="s">
         <v>14</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="354" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="354" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B354" t="s">
         <v>14</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="355" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="355" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B355" t="s">
         <v>14</v>
       </c>
@@ -6481,7 +6481,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="356" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="356" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B356" t="s">
         <v>14</v>
       </c>
@@ -6489,7 +6489,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="357" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="357" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B357" t="s">
         <v>14</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="358" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="358" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B358" t="s">
         <v>14</v>
       </c>
@@ -6505,7 +6505,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="359" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="359" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B359" t="s">
         <v>14</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="360" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="360" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B360" t="s">
         <v>14</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="361" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="361" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B361" t="s">
         <v>14</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="362" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="362" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B362" t="s">
         <v>14</v>
       </c>
@@ -6537,7 +6537,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="363" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="363" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B363" t="s">
         <v>14</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="364" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="364" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B364" t="s">
         <v>14</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="365" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="365" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B365" t="s">
         <v>14</v>
       </c>
@@ -6561,7 +6561,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="366" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="366" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B366" t="s">
         <v>14</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="367" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="367" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B367" t="s">
         <v>14</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="368" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="368" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B368" t="s">
         <v>14</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="369" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="369" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B369" t="s">
         <v>14</v>
       </c>
@@ -6593,7 +6593,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="370" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="370" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B370" t="s">
         <v>14</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="371" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="371" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B371" t="s">
         <v>14</v>
       </c>
@@ -6609,7 +6609,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="372" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="372" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B372" t="s">
         <v>14</v>
       </c>
@@ -6617,7 +6617,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="373" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="373" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B373" t="s">
         <v>14</v>
       </c>
@@ -6625,7 +6625,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="374" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="374" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B374" t="s">
         <v>14</v>
       </c>
@@ -6633,7 +6633,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="375" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="375" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B375" t="s">
         <v>14</v>
       </c>
@@ -6641,7 +6641,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="376" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="376" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B376" t="s">
         <v>14</v>
       </c>
@@ -6649,7 +6649,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="377" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="377" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B377" t="s">
         <v>14</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="378" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="378" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B378" t="s">
         <v>14</v>
       </c>
@@ -6665,7 +6665,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="379" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="379" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B379" t="s">
         <v>14</v>
       </c>
@@ -6673,7 +6673,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="380" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="380" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B380" t="s">
         <v>14</v>
       </c>
@@ -6681,7 +6681,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="381" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="381" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B381" t="s">
         <v>14</v>
       </c>
@@ -6689,7 +6689,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="382" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="382" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B382" t="s">
         <v>14</v>
       </c>
@@ -6697,7 +6697,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="383" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="383" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B383" t="s">
         <v>14</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="384" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="384" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B384" t="s">
         <v>14</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="385" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="385" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B385" t="s">
         <v>14</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="386" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="386" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B386" t="s">
         <v>14</v>
       </c>
@@ -6729,7 +6729,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="387" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="387" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B387" t="s">
         <v>14</v>
       </c>
@@ -6737,7 +6737,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="388" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="388" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B388" t="s">
         <v>14</v>
       </c>
@@ -6745,7 +6745,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="389" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="389" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B389" t="s">
         <v>14</v>
       </c>
@@ -6753,7 +6753,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="390" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="390" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B390" t="s">
         <v>14</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="391" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="391" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B391" t="s">
         <v>14</v>
       </c>
@@ -6769,7 +6769,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="392" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="392" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B392" t="s">
         <v>14</v>
       </c>
@@ -6777,7 +6777,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="393" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="393" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B393" t="s">
         <v>14</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="394" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="394" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B394" t="s">
         <v>14</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="395" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="395" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B395" t="s">
         <v>14</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="396" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="396" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B396" t="s">
         <v>14</v>
       </c>
@@ -6809,7 +6809,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="397" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="397" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B397" t="s">
         <v>14</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="398" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="398" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B398" t="s">
         <v>14</v>
       </c>
@@ -6825,7 +6825,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="399" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="399" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B399" t="s">
         <v>14</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="400" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="400" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B400" t="s">
         <v>14</v>
       </c>
@@ -6841,7 +6841,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="401" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="401" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B401" t="s">
         <v>14</v>
       </c>
@@ -6849,7 +6849,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="402" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="402" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B402" t="s">
         <v>14</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="403" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="403" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B403" t="s">
         <v>14</v>
       </c>
@@ -6865,7 +6865,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="404" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="404" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B404" t="s">
         <v>14</v>
       </c>
@@ -6873,7 +6873,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="405" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="405" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B405" t="s">
         <v>14</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="406" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="406" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B406" t="s">
         <v>14</v>
       </c>
@@ -6889,7 +6889,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="407" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="407" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B407" t="s">
         <v>14</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="408" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="408" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B408" t="s">
         <v>14</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="409" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="409" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B409" t="s">
         <v>14</v>
       </c>
@@ -6913,7 +6913,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="410" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="410" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B410" t="s">
         <v>14</v>
       </c>
@@ -6921,7 +6921,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="411" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="411" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B411" t="s">
         <v>14</v>
       </c>
@@ -6929,7 +6929,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="412" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="412" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B412" t="s">
         <v>14</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="413" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="413" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B413" t="s">
         <v>14</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="414" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="414" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B414" t="s">
         <v>14</v>
       </c>
@@ -6953,7 +6953,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="415" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="415" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B415" t="s">
         <v>14</v>
       </c>
@@ -6961,7 +6961,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="416" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="416" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B416" t="s">
         <v>14</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="417" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="417" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B417" t="s">
         <v>14</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="418" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="418" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B418" t="s">
         <v>14</v>
       </c>
@@ -6985,7 +6985,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="419" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="419" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B419" t="s">
         <v>14</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="420" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="420" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B420" t="s">
         <v>14</v>
       </c>
@@ -7001,7 +7001,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="421" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="421" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B421" t="s">
         <v>14</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="422" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="422" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B422" t="s">
         <v>14</v>
       </c>
@@ -7017,7 +7017,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="423" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="423" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B423" t="s">
         <v>14</v>
       </c>
@@ -7025,7 +7025,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="424" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="424" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B424" t="s">
         <v>14</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="425" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="425" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B425" t="s">
         <v>14</v>
       </c>
@@ -7041,7 +7041,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="426" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="426" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B426" t="s">
         <v>14</v>
       </c>
@@ -7049,7 +7049,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="427" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="427" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B427" t="s">
         <v>14</v>
       </c>
@@ -7057,7 +7057,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="428" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="428" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B428" t="s">
         <v>14</v>
       </c>
@@ -7065,7 +7065,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="429" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="429" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B429" t="s">
         <v>14</v>
       </c>
@@ -7073,7 +7073,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="430" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="430" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B430" t="s">
         <v>14</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="431" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="431" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B431" t="s">
         <v>14</v>
       </c>
@@ -7089,7 +7089,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="432" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="432" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B432" t="s">
         <v>14</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="433" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="433" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B433" t="s">
         <v>14</v>
       </c>
@@ -7105,7 +7105,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="434" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="434" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B434" t="s">
         <v>14</v>
       </c>
@@ -7113,7 +7113,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="435" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="435" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B435" t="s">
         <v>14</v>
       </c>
@@ -7121,7 +7121,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="436" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="436" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B436" t="s">
         <v>14</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="437" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="437" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B437" t="s">
         <v>14</v>
       </c>
@@ -7137,7 +7137,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="438" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="438" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B438" t="s">
         <v>14</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="439" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="439" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B439" t="s">
         <v>14</v>
       </c>
@@ -7153,7 +7153,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="440" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="440" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B440" t="s">
         <v>14</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="441" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="441" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B441" t="s">
         <v>14</v>
       </c>
@@ -7169,7 +7169,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="442" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="442" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B442" t="s">
         <v>14</v>
       </c>
@@ -7177,7 +7177,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="443" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="443" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B443" t="s">
         <v>14</v>
       </c>
@@ -7185,7 +7185,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="444" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="444" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B444" t="s">
         <v>14</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="445" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="445" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B445" t="s">
         <v>14</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="446" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="446" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B446" t="s">
         <v>14</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="447" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="447" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B447" t="s">
         <v>14</v>
       </c>
@@ -7217,7 +7217,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="448" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="448" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B448" t="s">
         <v>14</v>
       </c>
@@ -7225,7 +7225,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="449" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="449" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B449" t="s">
         <v>14</v>
       </c>
@@ -7233,7 +7233,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="450" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="450" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B450" t="s">
         <v>14</v>
       </c>
@@ -7241,7 +7241,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="451" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="451" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B451" t="s">
         <v>14</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="452" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="452" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B452" t="s">
         <v>14</v>
       </c>
@@ -7257,7 +7257,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="453" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="453" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B453" t="s">
         <v>14</v>
       </c>
@@ -7265,7 +7265,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="454" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="454" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B454" t="s">
         <v>14</v>
       </c>
@@ -7273,7 +7273,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="455" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="455" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B455" t="s">
         <v>14</v>
       </c>
@@ -7281,7 +7281,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="456" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="456" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B456" t="s">
         <v>14</v>
       </c>
@@ -7289,7 +7289,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="457" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="457" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B457" t="s">
         <v>14</v>
       </c>
@@ -7297,7 +7297,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="458" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="458" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B458" t="s">
         <v>14</v>
       </c>
@@ -7305,7 +7305,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="459" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="459" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B459" t="s">
         <v>14</v>
       </c>
@@ -7313,7 +7313,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="460" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="460" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B460" t="s">
         <v>14</v>
       </c>
@@ -7321,7 +7321,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="461" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="461" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B461" t="s">
         <v>14</v>
       </c>
@@ -7329,7 +7329,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="462" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="462" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B462" t="s">
         <v>14</v>
       </c>
@@ -7337,7 +7337,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="463" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="463" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B463" t="s">
         <v>14</v>
       </c>
@@ -7345,7 +7345,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="464" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="464" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B464" t="s">
         <v>14</v>
       </c>
@@ -7353,7 +7353,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="465" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="465" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B465" t="s">
         <v>14</v>
       </c>
@@ -7361,7 +7361,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="466" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="466" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B466" t="s">
         <v>14</v>
       </c>
@@ -7369,7 +7369,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="467" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="467" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B467" t="s">
         <v>14</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="468" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="468" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B468" t="s">
         <v>14</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="469" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="469" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B469" t="s">
         <v>14</v>
       </c>
@@ -7393,7 +7393,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="470" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="470" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B470" t="s">
         <v>14</v>
       </c>
@@ -7401,7 +7401,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="471" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="471" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B471" t="s">
         <v>14</v>
       </c>
@@ -7409,7 +7409,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="472" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="472" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B472" t="s">
         <v>14</v>
       </c>
@@ -7417,7 +7417,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="473" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="473" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B473" t="s">
         <v>14</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="474" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="474" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B474" t="s">
         <v>14</v>
       </c>
@@ -7433,7 +7433,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="475" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="475" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B475" t="s">
         <v>14</v>
       </c>
@@ -7441,7 +7441,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="476" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="476" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B476" t="s">
         <v>14</v>
       </c>
@@ -7449,7 +7449,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="477" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="477" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B477" t="s">
         <v>14</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="478" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="478" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B478" t="s">
         <v>14</v>
       </c>
@@ -7465,7 +7465,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="479" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="479" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B479" t="s">
         <v>14</v>
       </c>
@@ -7473,7 +7473,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="480" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="480" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B480" t="s">
         <v>14</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="481" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="481" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B481" t="s">
         <v>14</v>
       </c>
@@ -7489,7 +7489,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="482" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="482" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B482" t="s">
         <v>14</v>
       </c>
@@ -7497,7 +7497,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="483" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="483" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B483" t="s">
         <v>14</v>
       </c>
@@ -7505,7 +7505,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="484" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="484" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B484" t="s">
         <v>14</v>
       </c>
@@ -7513,7 +7513,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="485" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="485" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B485" t="s">
         <v>14</v>
       </c>
@@ -7521,7 +7521,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="486" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="486" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B486" t="s">
         <v>14</v>
       </c>
@@ -7529,7 +7529,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="487" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="487" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B487" t="s">
         <v>14</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="488" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="488" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B488" t="s">
         <v>14</v>
       </c>
@@ -7545,7 +7545,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="489" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="489" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B489" t="s">
         <v>14</v>
       </c>
@@ -7553,7 +7553,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="490" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="490" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B490" t="s">
         <v>14</v>
       </c>
@@ -7561,7 +7561,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="491" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="491" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B491" t="s">
         <v>14</v>
       </c>
@@ -7569,7 +7569,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="492" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="492" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B492" t="s">
         <v>14</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="493" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="493" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B493" t="s">
         <v>14</v>
       </c>
@@ -7585,7 +7585,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="494" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="494" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B494" t="s">
         <v>14</v>
       </c>
@@ -7593,7 +7593,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="495" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="495" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B495" t="s">
         <v>14</v>
       </c>
@@ -7601,7 +7601,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="496" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="496" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B496" t="s">
         <v>14</v>
       </c>
@@ -7609,7 +7609,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="497" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="497" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B497" t="s">
         <v>14</v>
       </c>
@@ -7617,7 +7617,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="498" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="498" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B498" t="s">
         <v>14</v>
       </c>
@@ -7625,7 +7625,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="499" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="499" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B499" t="s">
         <v>14</v>
       </c>
@@ -7633,7 +7633,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="500" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="500" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B500" t="s">
         <v>14</v>
       </c>
@@ -7680,73 +7680,73 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.046875" customWidth="1"/>
-    <col min="2" max="2" width="36.62109375" customWidth="1"/>
+    <col min="1" max="1" width="42" customWidth="1"/>
+    <col min="2" max="2" width="36.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -7764,18 +7764,18 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.9921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.0703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.08203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.37109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.55078125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>21</v>
       </c>
@@ -7783,7 +7783,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
@@ -7797,7 +7797,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
@@ -7809,7 +7809,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>19</v>
       </c>

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\labor\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9039EAF-ECF7-4E0D-A3B1-EF81265886FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E92BC8C-D2F3-4299-A46B-CF6A74FDFCE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{906AC16C-7A00-4349-BCA4-49CEC51B032C}"/>
   </bookViews>
@@ -137,7 +137,7 @@
     <t>Läuft nun auf Azure Cloud, bug-fixes und cleanup</t>
   </si>
   <si>
-    <t>AddPlayerIntentHandler funktioniert nun</t>
+    <t>AddPlayerIntentHandler funktioniert nun und skill_id wurde in azure env variable outsourced</t>
   </si>
 </sst>
 </file>
@@ -3155,7 +3155,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
+      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3174,7 +3174,7 @@
       </c>
       <c r="C3" s="6">
         <f>SUM(C6:C300)</f>
-        <v>2.3749999999999991</v>
+        <v>2.388888888888888</v>
       </c>
       <c r="D3" s="6"/>
     </row>
@@ -3583,7 +3583,7 @@
         <v>23</v>
       </c>
       <c r="C28" s="3">
-        <v>4.1666666666666664E-2</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>10</v>

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\labor\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E92BC8C-D2F3-4299-A46B-CF6A74FDFCE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D15905-C83B-4164-A0D8-E1572E776943}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{906AC16C-7A00-4349-BCA4-49CEC51B032C}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="38">
   <si>
     <t>Datum</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>AddPlayerIntentHandler funktioniert nun und skill_id wurde in azure env variable outsourced</t>
+  </si>
+  <si>
+    <t>SetDifficultyIntent-Implementierung</t>
+  </si>
+  <si>
+    <t>SetDifficultyIntent-Konfiguration und -Implementierung</t>
   </si>
 </sst>
 </file>
@@ -3154,8 +3160,8 @@
   <dimension ref="A3:F500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
+      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3174,7 +3180,7 @@
       </c>
       <c r="C3" s="6">
         <f>SUM(C6:C300)</f>
-        <v>2.388888888888888</v>
+        <v>2.4305555555555545</v>
       </c>
       <c r="D3" s="6"/>
     </row>
@@ -3593,21 +3599,37 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1">
+        <v>44890</v>
+      </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="C29" s="3">
+        <v>3.125E-2</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="E29" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1">
+        <v>44890</v>
+      </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="E30" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -7761,7 +7783,7 @@
   <dimension ref="A3:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="36">
   <si>
     <t xml:space="preserve">Summe (h)</t>
   </si>
@@ -114,7 +114,7 @@
     <t xml:space="preserve">Dokumentation</t>
   </si>
   <si>
-    <t xml:space="preserve">Begann Doxygen-Integration</t>
+    <t xml:space="preserve">Doxygen-Integration</t>
   </si>
   <si>
     <t xml:space="preserve">(bitte auswählen)</t>
@@ -409,7 +409,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -421,11 +421,11 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -502,19 +502,19 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="26" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="26" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="26" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="26" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -522,39 +522,43 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="26" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="22" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="26" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="22" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="26" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="26" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="17" xfId="26" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="17" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="16" xfId="26" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="26" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="26" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="19" xfId="26" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="26" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="19" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -562,19 +566,19 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="21" xfId="26" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="21" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="22" xfId="26" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="22" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="23" xfId="26" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="23" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="24" xfId="26" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="24" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -587,11 +591,11 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="Pivot-Tabelle Ecke" xfId="21"/>
-    <cellStyle name="Pivot-Tabelle Wert" xfId="22"/>
+    <cellStyle name="Pivot-Tabelle Ergebnis" xfId="22"/>
     <cellStyle name="Pivot-Tabelle Feld" xfId="23"/>
     <cellStyle name="Pivot-Tabelle Kategorie" xfId="24"/>
     <cellStyle name="Pivot-Tabelle Titel" xfId="25"/>
-    <cellStyle name="Pivot-Tabelle Ergebnis" xfId="26"/>
+    <cellStyle name="Pivot-Tabelle Wert" xfId="26"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
   <colors>
@@ -672,11 +676,12 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Dauer" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.0104166666666667" maxValue="0.229166666666667" count="10">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.0104166666666667" maxValue="0.229166666666667" count="11">
         <n v="0.0104166666666667"/>
         <n v="0.03125"/>
-        <n v="0.0555555555555556"/>
+        <n v="0.0416666666666667"/>
         <n v="0.0625"/>
+        <n v="0.0729166666666667"/>
         <n v="0.0833333333333333"/>
         <n v="0.09375"/>
         <n v="0.104166666666667"/>
@@ -686,8 +691,9 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Kategorie" numFmtId="0">
-      <sharedItems count="4">
+      <sharedItems count="5">
         <s v="(bitte auswählen)"/>
+        <s v="Dokumentation"/>
         <s v="Projektarbeit - Implementierung"/>
         <s v="Projektarbeit - Konzeption"/>
         <s v="Vorlesung"/>
@@ -701,93 +707,68 @@
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="495">
   <r>
     <x v="3"/>
-    <x v="7"/>
+    <x v="8"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="4"/>
+  </r>
+  <r>
     <x v="3"/>
+    <x v="8"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="2"/>
-    <x v="7"/>
+    <x v="8"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="4"/>
+  </r>
+  <r>
     <x v="3"/>
+    <x v="8"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="1"/>
-    <x v="7"/>
+    <x v="8"/>
+    <x v="4"/>
+  </r>
+  <r>
     <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="3"/>
+    <x v="8"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="2"/>
-    <x v="7"/>
-    <x v="3"/>
+    <x v="8"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="1"/>
-    <x v="7"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="7"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="7"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="7"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="7"/>
-    <x v="3"/>
+    <x v="8"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="2"/>
     <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
     <x v="2"/>
-    <x v="4"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="1"/>
   </r>
   <r>
     <x v="2"/>
@@ -800,2378 +781,2403 @@
     <x v="3"/>
   </r>
   <r>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="3"/>
+  </r>
+  <r>
     <x v="2"/>
-    <x v="8"/>
-    <x v="1"/>
-  </r>
-  <r>
+    <x v="3"/>
     <x v="2"/>
-    <x v="5"/>
-    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="9"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="2"/>
     <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
     <x v="1"/>
   </r>
   <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
     <x v="0"/>
   </r>
 </pivotCacheRecords>
@@ -3179,7 +3185,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" useAutoFormatting="0" itemPrintTitles="1" indent="0" outline="1" outlineData="1" compact="0" compactData="0">
-  <location ref="A3:F9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <location ref="A3:G9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" compact="0" showAll="0">
       <items count="5">
@@ -3192,11 +3198,12 @@
     </pivotField>
     <pivotField dataField="1" compact="0" showAll="0"/>
     <pivotField axis="axisCol" compact="0" showAll="0">
-      <items count="5">
+      <items count="6">
         <item x="0"/>
+        <item x="4"/>
+        <item x="2"/>
         <item x="3"/>
         <item x="1"/>
-        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3208,7 +3215,7 @@
     <field x="2"/>
   </colFields>
   <dataFields count="1">
-    <dataField name="Summe von Dauer" fld="1" subtotal="sum" numFmtId="167"/>
+    <dataField name="Summe von Dauer" fld="1" subtotal="sum" numFmtId="168"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
 </pivotTableDefinition>
@@ -3238,10 +3245,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
+      <selection pane="bottomLeft" activeCell="E34" activeCellId="0" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8828125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.890625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.5"/>
@@ -3257,7 +3264,7 @@
       </c>
       <c r="C3" s="2" t="n">
         <f aca="false">SUM(C6:C300)</f>
-        <v>2.52083333333333</v>
+        <v>2.64583333333333</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -3717,7 +3724,7 @@
         <v>11</v>
       </c>
       <c r="C31" s="8" t="n">
-        <v>0.0729166666666667</v>
+        <v>0.197916666666667</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>28</v>
@@ -7788,7 +7795,7 @@
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8828125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.890625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.62"/>
@@ -7875,13 +7882,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:F9"/>
+  <dimension ref="A3:G9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8828125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.890625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.13"/>
@@ -7902,7 +7909,8 @@
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="14" t="s">
@@ -7920,7 +7928,10 @@
       <c r="E4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="17" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7931,8 +7942,9 @@
       <c r="B5" s="19"/>
       <c r="C5" s="20"/>
       <c r="D5" s="20"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="22"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="23" t="s">
@@ -7940,14 +7952,15 @@
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="25" t="n">
-        <v>0.458333333333333</v>
+        <v>0.458333333333332</v>
       </c>
       <c r="D6" s="26"/>
-      <c r="E6" s="27" t="n">
+      <c r="E6" s="25" t="n">
         <v>0.0833333333333333</v>
       </c>
-      <c r="F6" s="28" t="n">
-        <v>0.541666666666667</v>
+      <c r="F6" s="27"/>
+      <c r="G6" s="28" t="n">
+        <v>0.541666666666665</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7956,52 +7969,59 @@
       </c>
       <c r="B7" s="24"/>
       <c r="C7" s="25" t="n">
-        <v>0.552083333333333</v>
+        <v>0.552083333333332</v>
       </c>
       <c r="D7" s="25" t="n">
-        <v>0.607638888888889</v>
-      </c>
-      <c r="E7" s="27" t="n">
+        <v>0.625000000000001</v>
+      </c>
+      <c r="E7" s="25" t="n">
         <v>0.0833333333333333</v>
       </c>
-      <c r="F7" s="28" t="n">
-        <v>1.24305555555556</v>
+      <c r="F7" s="29" t="n">
+        <v>0.0729166666666667</v>
+      </c>
+      <c r="G7" s="28" t="n">
+        <v>1.33333333333333</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="30" t="n">
-        <v>0.552083333333333</v>
-      </c>
-      <c r="D8" s="30" t="n">
+      <c r="B8" s="30"/>
+      <c r="C8" s="31" t="n">
+        <v>0.552083333333332</v>
+      </c>
+      <c r="D8" s="31" t="n">
         <v>0.0104166666666667</v>
       </c>
       <c r="E8" s="31" t="n">
         <v>0.0833333333333333</v>
       </c>
-      <c r="F8" s="32" t="n">
-        <v>0.645833333333333</v>
+      <c r="F8" s="32"/>
+      <c r="G8" s="33" t="n">
+        <v>0.645833333333332</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="35" t="n">
+      <c r="B9" s="35"/>
+      <c r="C9" s="36" t="n">
         <v>1.5625</v>
       </c>
-      <c r="D9" s="35" t="n">
-        <v>0.618055555555556</v>
+      <c r="D9" s="36" t="n">
+        <v>0.635416666666668</v>
       </c>
       <c r="E9" s="36" t="n">
         <v>0.25</v>
       </c>
       <c r="F9" s="37" t="n">
-        <v>2.43055555555555</v>
+        <v>0.0729166666666667</v>
+      </c>
+      <c r="G9" s="38" t="n">
+        <v>2.52083333333333</v>
       </c>
     </row>
   </sheetData>
